--- a/update_data/data/common/interaction/NLP互动语料汇总12.25.xlsx
+++ b/update_data/data/common/interaction/NLP互动语料汇总12.25.xlsx
@@ -51,10 +51,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{80BF0089-CE58-491A-BA58-846BC418FA23}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="936" activeSheetId="1"/>
+    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="936" activeSheetId="1"/>
+    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{4FD0F5BB-18CA-4D4E-94E1-C85E09E751CE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="936" activeSheetId="1"/>
     <customWorkbookView name="ling.tian(田玲) - 个人视图" guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="657" tabRatio="936" activeSheetId="1"/>
-    <customWorkbookView name="hongru.chu(褚宏茹) - 个人视图" guid="{4FD0F5BB-18CA-4D4E-94E1-C85E09E751CE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1276" windowHeight="781" tabRatio="936" activeSheetId="1"/>
-    <customWorkbookView name="mengwei.chang(常孟玮) - 个人视图" guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="524" tabRatio="936" activeSheetId="1"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{80BF0089-CE58-491A-BA58-846BC418FA23}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="837" tabRatio="936" activeSheetId="1"/>
   </customWorkbookViews>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
@@ -6661,10 +6661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会变魔术的叫魔术师，而我只是旺宝，银行的小助理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>您随便说说，我随便听听</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6681,10 +6677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旺宝没有控制住体内的洪荒之力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6706,14 +6698,6 @@
   </si>
   <si>
     <t>好好学习，天天向上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难道你不爱我了吗，旺宝的声音不好听了吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日子过得有点乱，旺宝都不记得工作多久了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8410,10 +8394,6 @@
       </rPr>
       <t>我问你啊/我有一个问题/我有一个问题想咨询你啊</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，小朋友/你好，小宝宝/你好，我叫旺宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11663,6 +11643,26 @@
       </rPr>
       <t>你怎么这么可爱呀/你笑的真可爱/真爱你/那就爱死你了</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日子过得有点乱，我都不记得工作多久了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难道你不爱我了吗，我的声音不好听了吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，小朋友/你好，小宝宝/你好，宝宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本宝宝没有控制住体内的洪荒之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会变魔术的叫魔术师，而我只是银行的小助理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12003,7 +12003,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5C1A8425-8A47-4A39-975E-898916BE0C3C}" diskRevisions="1" revisionId="784" version="408">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A218195B-7807-4E02-86BD-0E9096B67934}" diskRevisions="1" revisionId="789" version="409">
   <header guid="{17F5E36D-714D-4085-8D1D-F655FC710012}" dateTime="2017-12-25T13:24:40" maxSheetId="4" userName="hongru.chu(褚宏茹)" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -14860,6 +14860,13 @@
       <sheetId val="3"/>
     </sheetIdMap>
   </header>
+  <header guid="{A218195B-7807-4E02-86BD-0E9096B67934}" dateTime="2018-01-12T14:05:43" maxSheetId="4" userName="ling.tian(田玲)" r:id="rId409" minRId="785" maxRId="789">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -43513,6 +43520,81 @@
           <t>你怎么这么可爱呀/你笑的真可爱/真爱你/那就爱死你了</t>
         </r>
         <phoneticPr fontId="2" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog409.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="785" sId="1">
+    <oc r="C677" t="inlineStr">
+      <is>
+        <t>日子过得有点乱，旺宝都不记得工作多久了</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C677" t="inlineStr">
+      <is>
+        <t>日子过得有点乱，我都不记得工作多久了</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="786" sId="1">
+    <oc r="C678" t="inlineStr">
+      <is>
+        <t>难道你不爱我了吗，旺宝的声音不好听了吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C678" t="inlineStr">
+      <is>
+        <t>难道你不爱我了吗，我的声音不好听了吗</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="787" sId="1">
+    <oc r="C681" t="inlineStr">
+      <is>
+        <t>你好，小朋友/你好，小宝宝/你好，我叫旺宝</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C681" t="inlineStr">
+      <is>
+        <t>你好，小朋友/你好，小宝宝/你好，宝宝</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="788" sId="1">
+    <oc r="C693" t="inlineStr">
+      <is>
+        <t>旺宝没有控制住体内的洪荒之力</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C693" t="inlineStr">
+      <is>
+        <t>本宝宝没有控制住体内的洪荒之力</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="789" sId="1">
+    <oc r="C694" t="inlineStr">
+      <is>
+        <t>会变魔术的叫魔术师，而我只是旺宝，银行的小助理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="C694" t="inlineStr">
+      <is>
+        <t>会变魔术的叫魔术师，而我只是银行的小助理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
@@ -48784,7 +48866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -48795,10 +48877,10 @@
   <dimension ref="A1:F712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C677" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C691" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B702" sqref="B702"/>
+      <selection pane="bottomRight" activeCell="C695" sqref="C695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.25" customHeight="1"/>
@@ -48812,7 +48894,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="24" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="24" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>0</v>
@@ -48832,7 +48914,7 @@
     </row>
     <row r="2" spans="1:6" ht="75.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1347</v>
@@ -48841,7 +48923,7 @@
         <v>1822</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>12</v>
@@ -48850,7 +48932,7 @@
     </row>
     <row r="3" spans="1:6" ht="75.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1376</v>
@@ -48868,7 +48950,7 @@
     </row>
     <row r="4" spans="1:6" ht="75.75" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1264</v>
@@ -48877,7 +48959,7 @@
         <v>1265</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>72</v>
@@ -48886,7 +48968,7 @@
     </row>
     <row r="5" spans="1:6" ht="75.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>956</v>
@@ -48895,7 +48977,7 @@
         <v>957</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -48904,7 +48986,7 @@
     </row>
     <row r="6" spans="1:6" ht="75.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1338</v>
@@ -48922,7 +49004,7 @@
     </row>
     <row r="7" spans="1:6" ht="75.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>966</v>
@@ -48931,7 +49013,7 @@
         <v>967</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -48940,7 +49022,7 @@
     </row>
     <row r="8" spans="1:6" ht="75.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>1027</v>
@@ -48949,7 +49031,7 @@
         <v>1028</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>12</v>
@@ -48958,7 +49040,7 @@
     </row>
     <row r="9" spans="1:6" ht="75.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>1029</v>
@@ -48967,7 +49049,7 @@
         <v>1030</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>2199</v>
+        <v>2194</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>104</v>
@@ -48976,13 +49058,13 @@
     </row>
     <row r="10" spans="1:6" ht="75.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>1266</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>1267</v>
@@ -48994,7 +49076,7 @@
     </row>
     <row r="11" spans="1:6" ht="75.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>674</v>
@@ -49003,7 +49085,7 @@
         <v>675</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>427</v>
@@ -49012,7 +49094,7 @@
     </row>
     <row r="12" spans="1:6" ht="75.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>867</v>
@@ -49030,7 +49112,7 @@
     </row>
     <row r="13" spans="1:6" ht="75.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>539</v>
@@ -49039,7 +49121,7 @@
         <v>540</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>427</v>
@@ -49048,7 +49130,7 @@
     </row>
     <row r="14" spans="1:6" ht="75.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>1116</v>
@@ -49057,7 +49139,7 @@
         <v>1117</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>444</v>
@@ -49066,7 +49148,7 @@
     </row>
     <row r="15" spans="1:6" ht="75.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>227</v>
@@ -49084,7 +49166,7 @@
     </row>
     <row r="16" spans="1:6" ht="75.75" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>410</v>
@@ -49093,7 +49175,7 @@
         <v>411</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>412</v>
@@ -49102,7 +49184,7 @@
     </row>
     <row r="17" spans="1:6" ht="75.75" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1144</v>
@@ -49120,7 +49202,7 @@
     </row>
     <row r="18" spans="1:6" ht="75.75" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>1233</v>
@@ -49129,7 +49211,7 @@
         <v>1234</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>444</v>
@@ -49138,7 +49220,7 @@
     </row>
     <row r="19" spans="1:6" ht="75.75" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>519</v>
@@ -49156,7 +49238,7 @@
     </row>
     <row r="20" spans="1:6" ht="75.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>95</v>
@@ -49165,7 +49247,7 @@
         <v>96</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>423</v>
@@ -49174,7 +49256,7 @@
     </row>
     <row r="21" spans="1:6" ht="75.75" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>241</v>
@@ -49192,7 +49274,7 @@
     </row>
     <row r="22" spans="1:6" ht="75.75" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>1344</v>
@@ -49210,7 +49292,7 @@
     </row>
     <row r="23" spans="1:6" ht="75.75" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>202</v>
@@ -49228,7 +49310,7 @@
     </row>
     <row r="24" spans="1:6" ht="75.75" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>748</v>
@@ -49237,7 +49319,7 @@
         <v>1784</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>424</v>
@@ -49246,7 +49328,7 @@
     </row>
     <row r="25" spans="1:6" ht="75.75" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>413</v>
@@ -49255,7 +49337,7 @@
         <v>414</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>412</v>
@@ -49264,7 +49346,7 @@
     </row>
     <row r="26" spans="1:6" ht="75.75" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>135</v>
@@ -49273,7 +49355,7 @@
         <v>136</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>6</v>
@@ -49282,7 +49364,7 @@
     </row>
     <row r="27" spans="1:6" ht="75.75" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>689</v>
@@ -49300,7 +49382,7 @@
     </row>
     <row r="28" spans="1:6" ht="75.75" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>244</v>
@@ -49318,7 +49400,7 @@
     </row>
     <row r="29" spans="1:6" ht="75.75" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>781</v>
@@ -49327,7 +49409,7 @@
         <v>782</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>12</v>
@@ -49336,7 +49418,7 @@
     </row>
     <row r="30" spans="1:6" ht="75.75" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>1583</v>
@@ -49354,7 +49436,7 @@
     </row>
     <row r="31" spans="1:6" ht="75.75" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>990</v>
@@ -49372,7 +49454,7 @@
     </row>
     <row r="32" spans="1:6" ht="75.75" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>722</v>
@@ -49381,7 +49463,7 @@
         <v>1673</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>513</v>
@@ -49390,7 +49472,7 @@
     </row>
     <row r="33" spans="1:6" ht="75.75" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>493</v>
@@ -49408,7 +49490,7 @@
     </row>
     <row r="34" spans="1:6" ht="75.75" customHeight="1">
       <c r="A34" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>247</v>
@@ -49417,7 +49499,7 @@
         <v>248</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>2188</v>
+        <v>2183</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>8</v>
@@ -49426,7 +49508,7 @@
     </row>
     <row r="35" spans="1:6" ht="75.75" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>249</v>
@@ -49444,7 +49526,7 @@
     </row>
     <row r="36" spans="1:6" ht="75.75" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>48</v>
@@ -49453,7 +49535,7 @@
         <v>1678</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>8</v>
@@ -49462,7 +49544,7 @@
     </row>
     <row r="37" spans="1:6" ht="75.75" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>1756</v>
@@ -49480,7 +49562,7 @@
     </row>
     <row r="38" spans="1:6" ht="75.75" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>1637</v>
@@ -49489,7 +49571,7 @@
         <v>1638</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>409</v>
@@ -49498,7 +49580,7 @@
     </row>
     <row r="39" spans="1:6" ht="75.75" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>983</v>
@@ -49507,7 +49589,7 @@
         <v>984</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>2144</v>
+        <v>2139</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>6</v>
@@ -49516,7 +49598,7 @@
     </row>
     <row r="40" spans="1:6" ht="75.75" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>1479</v>
@@ -49525,7 +49607,7 @@
         <v>1785</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>8</v>
@@ -49534,7 +49616,7 @@
     </row>
     <row r="41" spans="1:6" ht="75.75" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>174</v>
@@ -49552,7 +49634,7 @@
     </row>
     <row r="42" spans="1:6" ht="75.75" customHeight="1">
       <c r="A42" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>822</v>
@@ -49570,7 +49652,7 @@
     </row>
     <row r="43" spans="1:6" ht="75.75" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>505</v>
@@ -49579,7 +49661,7 @@
         <v>506</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>2197</v>
+        <v>2192</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>421</v>
@@ -49588,7 +49670,7 @@
     </row>
     <row r="44" spans="1:6" ht="75.75" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>252</v>
@@ -49597,7 +49679,7 @@
         <v>253</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>8</v>
@@ -49606,16 +49688,16 @@
     </row>
     <row r="45" spans="1:6" ht="75.75" customHeight="1">
       <c r="A45" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>522</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>421</v>
@@ -49624,7 +49706,7 @@
     </row>
     <row r="46" spans="1:6" ht="75.75" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>254</v>
@@ -49642,7 +49724,7 @@
     </row>
     <row r="47" spans="1:6" ht="75.75" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>1435</v>
@@ -49660,7 +49742,7 @@
     </row>
     <row r="48" spans="1:6" ht="75.75" customHeight="1">
       <c r="A48" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>838</v>
@@ -49678,7 +49760,7 @@
     </row>
     <row r="49" spans="1:6" ht="75.75" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>861</v>
@@ -49696,7 +49778,7 @@
     </row>
     <row r="50" spans="1:6" ht="75.75" customHeight="1">
       <c r="A50" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>256</v>
@@ -49714,7 +49796,7 @@
     </row>
     <row r="51" spans="1:6" ht="75.75" customHeight="1">
       <c r="A51" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>257</v>
@@ -49723,7 +49805,7 @@
         <v>258</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>2187</v>
+        <v>2182</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>1729</v>
@@ -49732,7 +49814,7 @@
     </row>
     <row r="52" spans="1:6" ht="75.75" customHeight="1">
       <c r="A52" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>489</v>
@@ -49741,7 +49823,7 @@
         <v>490</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>472</v>
@@ -49750,7 +49832,7 @@
     </row>
     <row r="53" spans="1:6" ht="75.75" customHeight="1">
       <c r="A53" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>944</v>
@@ -49768,7 +49850,7 @@
     </row>
     <row r="54" spans="1:6" ht="75.75" customHeight="1">
       <c r="A54" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>259</v>
@@ -49786,7 +49868,7 @@
     </row>
     <row r="55" spans="1:6" ht="75.75" customHeight="1">
       <c r="A55" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>899</v>
@@ -49804,16 +49886,16 @@
     </row>
     <row r="56" spans="1:6" ht="75.75" customHeight="1">
       <c r="A56" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>1379</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>12</v>
@@ -49822,7 +49904,7 @@
     </row>
     <row r="57" spans="1:6" ht="75.75" customHeight="1">
       <c r="A57" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>761</v>
@@ -49831,7 +49913,7 @@
         <v>762</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>6</v>
@@ -49840,7 +49922,7 @@
     </row>
     <row r="58" spans="1:6" ht="75.75" customHeight="1">
       <c r="A58" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>1060</v>
@@ -49849,7 +49931,7 @@
         <v>1061</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>421</v>
@@ -49858,7 +49940,7 @@
     </row>
     <row r="59" spans="1:6" ht="75.75" customHeight="1">
       <c r="A59" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>1534</v>
@@ -49867,7 +49949,7 @@
         <v>1535</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>12</v>
@@ -49876,7 +49958,7 @@
     </row>
     <row r="60" spans="1:6" ht="75.75" customHeight="1">
       <c r="A60" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>1097</v>
@@ -49894,7 +49976,7 @@
     </row>
     <row r="61" spans="1:6" ht="75.75" customHeight="1">
       <c r="A61" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>1506</v>
@@ -49903,7 +49985,7 @@
         <v>1507</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>1730</v>
@@ -49912,7 +49994,7 @@
     </row>
     <row r="62" spans="1:6" ht="75.75" customHeight="1">
       <c r="A62" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>875</v>
@@ -49921,7 +50003,7 @@
         <v>876</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>12</v>
@@ -49930,7 +50012,7 @@
     </row>
     <row r="63" spans="1:6" ht="75.75" customHeight="1">
       <c r="A63" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>262</v>
@@ -49939,7 +50021,7 @@
         <v>263</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>1731</v>
@@ -49948,7 +50030,7 @@
     </row>
     <row r="64" spans="1:6" ht="75.75" customHeight="1">
       <c r="A64" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>1250</v>
@@ -49957,7 +50039,7 @@
         <v>1820</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>72</v>
@@ -49966,7 +50048,7 @@
     </row>
     <row r="65" spans="1:6" ht="75.75" customHeight="1">
       <c r="A65" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>1634</v>
@@ -49984,7 +50066,7 @@
     </row>
     <row r="66" spans="1:6" ht="75.75" customHeight="1">
       <c r="A66" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>1380</v>
@@ -50002,7 +50084,7 @@
     </row>
     <row r="67" spans="1:6" ht="75.75" customHeight="1">
       <c r="A67" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>1382</v>
@@ -50020,7 +50102,7 @@
     </row>
     <row r="68" spans="1:6" ht="75.75" customHeight="1">
       <c r="A68" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>1399</v>
@@ -50029,7 +50111,7 @@
         <v>1400</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="E68" s="20" t="s">
         <v>8</v>
@@ -50038,7 +50120,7 @@
     </row>
     <row r="69" spans="1:6" ht="75.75" customHeight="1">
       <c r="A69" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>778</v>
@@ -50056,7 +50138,7 @@
     </row>
     <row r="70" spans="1:6" ht="75.75" customHeight="1">
       <c r="A70" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>1401</v>
@@ -50065,7 +50147,7 @@
         <v>1399</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>12</v>
@@ -50074,7 +50156,7 @@
     </row>
     <row r="71" spans="1:6" ht="75.75" customHeight="1">
       <c r="A71" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>1075</v>
@@ -50092,7 +50174,7 @@
     </row>
     <row r="72" spans="1:6" ht="75.75" customHeight="1">
       <c r="A72" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>1247</v>
@@ -50110,7 +50192,7 @@
     </row>
     <row r="73" spans="1:6" ht="75.75" customHeight="1">
       <c r="A73" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>211</v>
@@ -50119,7 +50201,7 @@
         <v>212</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>8</v>
@@ -50128,7 +50210,7 @@
     </row>
     <row r="74" spans="1:6" ht="75.75" customHeight="1">
       <c r="A74" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>207</v>
@@ -50137,7 +50219,7 @@
         <v>208</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>12</v>
@@ -50146,7 +50228,7 @@
     </row>
     <row r="75" spans="1:6" ht="75.75" customHeight="1">
       <c r="A75" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>81</v>
@@ -50155,7 +50237,7 @@
         <v>82</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>1731</v>
@@ -50164,7 +50246,7 @@
     </row>
     <row r="76" spans="1:6" ht="75.75" customHeight="1">
       <c r="A76" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>401</v>
@@ -50173,7 +50255,7 @@
         <v>402</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>1731</v>
@@ -50182,7 +50264,7 @@
     </row>
     <row r="77" spans="1:6" ht="75.75" customHeight="1">
       <c r="A77" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>1546</v>
@@ -50191,7 +50273,7 @@
         <v>1547</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>16</v>
@@ -50200,7 +50282,7 @@
     </row>
     <row r="78" spans="1:6" ht="75.75" customHeight="1">
       <c r="A78" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>1735</v>
@@ -50209,7 +50291,7 @@
         <v>119</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>1731</v>
@@ -50218,7 +50300,7 @@
     </row>
     <row r="79" spans="1:6" ht="75.75" customHeight="1">
       <c r="A79" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>758</v>
@@ -50236,7 +50318,7 @@
     </row>
     <row r="80" spans="1:6" ht="75.75" customHeight="1">
       <c r="A80" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>1089</v>
@@ -50254,7 +50336,7 @@
     </row>
     <row r="81" spans="1:6" ht="75.75" customHeight="1">
       <c r="A81" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>1742</v>
@@ -50263,7 +50345,7 @@
         <v>100</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
       <c r="E81" s="20" t="s">
         <v>101</v>
@@ -50272,7 +50354,7 @@
     </row>
     <row r="82" spans="1:6" ht="75.75" customHeight="1">
       <c r="A82" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>219</v>
@@ -50290,7 +50372,7 @@
     </row>
     <row r="83" spans="1:6" ht="75.75" customHeight="1">
       <c r="A83" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>153</v>
@@ -50299,7 +50381,7 @@
         <v>154</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>1731</v>
@@ -50308,7 +50390,7 @@
     </row>
     <row r="84" spans="1:6" ht="75.75" customHeight="1">
       <c r="A84" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>1229</v>
@@ -50317,7 +50399,7 @@
         <v>1230</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>444</v>
@@ -50326,7 +50408,7 @@
     </row>
     <row r="85" spans="1:6" ht="75.75" customHeight="1">
       <c r="A85" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>1122</v>
@@ -50344,7 +50426,7 @@
     </row>
     <row r="86" spans="1:6" ht="75.75" customHeight="1">
       <c r="A86" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>418</v>
@@ -50362,7 +50444,7 @@
     </row>
     <row r="87" spans="1:6" ht="75.75" customHeight="1">
       <c r="A87" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>75</v>
@@ -50380,7 +50462,7 @@
     </row>
     <row r="88" spans="1:6" ht="75.75" customHeight="1">
       <c r="A88" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>183</v>
@@ -50398,7 +50480,7 @@
     </row>
     <row r="89" spans="1:6" ht="75.75" customHeight="1">
       <c r="A89" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>561</v>
@@ -50416,7 +50498,7 @@
     </row>
     <row r="90" spans="1:6" ht="75.75" customHeight="1">
       <c r="A90" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>1125</v>
@@ -50425,7 +50507,7 @@
         <v>1126</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>412</v>
@@ -50434,7 +50516,7 @@
     </row>
     <row r="91" spans="1:6" ht="75.75" customHeight="1">
       <c r="A91" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>264</v>
@@ -50452,7 +50534,7 @@
     </row>
     <row r="92" spans="1:6" ht="75.75" customHeight="1">
       <c r="A92" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>1658</v>
@@ -50470,7 +50552,7 @@
     </row>
     <row r="93" spans="1:6" ht="75.75" customHeight="1">
       <c r="A93" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>1559</v>
@@ -50479,7 +50561,7 @@
         <v>1560</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>427</v>
@@ -50488,7 +50570,7 @@
     </row>
     <row r="94" spans="1:6" ht="75.75" customHeight="1">
       <c r="A94" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>105</v>
@@ -50506,7 +50588,7 @@
     </row>
     <row r="95" spans="1:6" ht="75.75" customHeight="1">
       <c r="A95" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>158</v>
@@ -50524,7 +50606,7 @@
     </row>
     <row r="96" spans="1:6" ht="75.75" customHeight="1">
       <c r="A96" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>150</v>
@@ -50542,7 +50624,7 @@
     </row>
     <row r="97" spans="1:6" ht="75.75" customHeight="1">
       <c r="A97" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>60</v>
@@ -50560,7 +50642,7 @@
     </row>
     <row r="98" spans="1:6" ht="75.75" customHeight="1">
       <c r="A98" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>523</v>
@@ -50578,7 +50660,7 @@
     </row>
     <row r="99" spans="1:6" ht="75.75" customHeight="1">
       <c r="A99" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>473</v>
@@ -50596,7 +50678,7 @@
     </row>
     <row r="100" spans="1:6" ht="75.75" customHeight="1">
       <c r="A100" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>1554</v>
@@ -50605,7 +50687,7 @@
         <v>1555</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>412</v>
@@ -50614,7 +50696,7 @@
     </row>
     <row r="101" spans="1:6" ht="75.75" customHeight="1">
       <c r="A101" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>267</v>
@@ -50632,7 +50714,7 @@
     </row>
     <row r="102" spans="1:6" ht="75.75" customHeight="1">
       <c r="A102" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>270</v>
@@ -50650,7 +50732,7 @@
     </row>
     <row r="103" spans="1:6" ht="75.75" customHeight="1">
       <c r="A103" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>617</v>
@@ -50659,7 +50741,7 @@
         <v>618</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>427</v>
@@ -50668,7 +50750,7 @@
     </row>
     <row r="104" spans="1:6" ht="75.75" customHeight="1">
       <c r="A104" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>1743</v>
@@ -50677,7 +50759,7 @@
         <v>273</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>1731</v>
@@ -50686,7 +50768,7 @@
     </row>
     <row r="105" spans="1:6" ht="75.75" customHeight="1">
       <c r="A105" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>403</v>
@@ -50704,7 +50786,7 @@
     </row>
     <row r="106" spans="1:6" ht="75.75" customHeight="1">
       <c r="A106" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>274</v>
@@ -50722,7 +50804,7 @@
     </row>
     <row r="107" spans="1:6" ht="75.75" customHeight="1">
       <c r="A107" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>857</v>
@@ -50740,7 +50822,7 @@
     </row>
     <row r="108" spans="1:6" ht="75.75" customHeight="1">
       <c r="A108" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>487</v>
@@ -50749,7 +50831,7 @@
         <v>1760</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>1731</v>
@@ -50758,7 +50840,7 @@
     </row>
     <row r="109" spans="1:6" ht="75.75" customHeight="1">
       <c r="A109" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>450</v>
@@ -50767,7 +50849,7 @@
         <v>451</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>423</v>
@@ -50776,7 +50858,7 @@
     </row>
     <row r="110" spans="1:6" ht="75.75" customHeight="1">
       <c r="A110" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>1744</v>
@@ -50794,7 +50876,7 @@
     </row>
     <row r="111" spans="1:6" ht="75.75" customHeight="1">
       <c r="A111" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>860</v>
@@ -50812,7 +50894,7 @@
     </row>
     <row r="112" spans="1:6" ht="75.75" customHeight="1">
       <c r="A112" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>1094</v>
@@ -50830,7 +50912,7 @@
     </row>
     <row r="113" spans="1:6" ht="75.75" customHeight="1">
       <c r="A113" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>1325</v>
@@ -50839,7 +50921,7 @@
         <v>1326</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="E113" s="20" t="s">
         <v>8</v>
@@ -50848,7 +50930,7 @@
     </row>
     <row r="114" spans="1:6" ht="75.75" customHeight="1">
       <c r="A114" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>278</v>
@@ -50857,7 +50939,7 @@
         <v>279</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="E114" s="21" t="s">
         <v>1731</v>
@@ -50866,7 +50948,7 @@
     </row>
     <row r="115" spans="1:6" ht="75.75" customHeight="1">
       <c r="A115" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>1423</v>
@@ -50875,7 +50957,7 @@
         <v>1424</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>2213</v>
+        <v>2208</v>
       </c>
       <c r="E115" s="20" t="s">
         <v>104</v>
@@ -50884,7 +50966,7 @@
     </row>
     <row r="116" spans="1:6" ht="75.75" customHeight="1">
       <c r="A116" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>531</v>
@@ -50902,7 +50984,7 @@
     </row>
     <row r="117" spans="1:6" ht="75.75" customHeight="1">
       <c r="A117" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>1618</v>
@@ -50911,7 +50993,7 @@
         <v>1619</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>1731</v>
@@ -50920,7 +51002,7 @@
     </row>
     <row r="118" spans="1:6" ht="75.75" customHeight="1">
       <c r="A118" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>1073</v>
@@ -50929,7 +51011,7 @@
         <v>1074</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>2227</v>
+        <v>2222</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>412</v>
@@ -50938,7 +51020,7 @@
     </row>
     <row r="119" spans="1:6" ht="75.75" customHeight="1">
       <c r="A119" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>902</v>
@@ -50947,7 +51029,7 @@
         <v>1787</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>12</v>
@@ -50956,7 +51038,7 @@
     </row>
     <row r="120" spans="1:6" ht="75.75" customHeight="1">
       <c r="A120" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>416</v>
@@ -50965,7 +51047,7 @@
         <v>417</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>409</v>
@@ -50974,7 +51056,7 @@
     </row>
     <row r="121" spans="1:6" ht="75.75" customHeight="1">
       <c r="A121" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>970</v>
@@ -50983,7 +51065,7 @@
         <v>1751</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>6</v>
@@ -50992,7 +51074,7 @@
     </row>
     <row r="122" spans="1:6" ht="75.75" customHeight="1">
       <c r="A122" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>1274</v>
@@ -51001,7 +51083,7 @@
         <v>1275</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>72</v>
@@ -51010,7 +51092,7 @@
     </row>
     <row r="123" spans="1:6" ht="75.75" customHeight="1">
       <c r="A123" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>280</v>
@@ -51028,7 +51110,7 @@
     </row>
     <row r="124" spans="1:6" ht="75.75" customHeight="1">
       <c r="A124" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>1118</v>
@@ -51046,7 +51128,7 @@
     </row>
     <row r="125" spans="1:6" ht="75.75" customHeight="1">
       <c r="A125" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>1515</v>
@@ -51055,7 +51137,7 @@
         <v>1516</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>427</v>
@@ -51064,16 +51146,16 @@
     </row>
     <row r="126" spans="1:6" ht="75.75" customHeight="1">
       <c r="A126" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="E126" s="20" t="s">
         <v>16</v>
@@ -51082,13 +51164,13 @@
     </row>
     <row r="127" spans="1:6" ht="75.75" customHeight="1">
       <c r="A127" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>1448</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>1449</v>
@@ -51100,7 +51182,7 @@
     </row>
     <row r="128" spans="1:6" ht="75.75" customHeight="1">
       <c r="A128" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>1605</v>
@@ -51118,7 +51200,7 @@
     </row>
     <row r="129" spans="1:6" ht="75.75" customHeight="1">
       <c r="A129" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>1086</v>
@@ -51136,16 +51218,16 @@
     </row>
     <row r="130" spans="1:6" ht="75.75" customHeight="1">
       <c r="A130" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>1736</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="E130" s="20" t="s">
         <v>424</v>
@@ -51154,7 +51236,7 @@
     </row>
     <row r="131" spans="1:6" ht="75.75" customHeight="1">
       <c r="A131" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>1044</v>
@@ -51163,7 +51245,7 @@
         <v>1045</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>412</v>
@@ -51172,7 +51254,7 @@
     </row>
     <row r="132" spans="1:6" ht="75.75" customHeight="1">
       <c r="A132" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>1623</v>
@@ -51190,7 +51272,7 @@
     </row>
     <row r="133" spans="1:6" ht="75.75" customHeight="1">
       <c r="A133" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>1655</v>
@@ -51208,7 +51290,7 @@
     </row>
     <row r="134" spans="1:6" ht="75.75" customHeight="1">
       <c r="A134" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>196</v>
@@ -51226,7 +51308,7 @@
     </row>
     <row r="135" spans="1:6" ht="75.75" customHeight="1">
       <c r="A135" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>1630</v>
@@ -51235,7 +51317,7 @@
         <v>1664</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>424</v>
@@ -51244,7 +51326,7 @@
     </row>
     <row r="136" spans="1:6" ht="75.75" customHeight="1">
       <c r="A136" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>1574</v>
@@ -51262,7 +51344,7 @@
     </row>
     <row r="137" spans="1:6" ht="75.75" customHeight="1">
       <c r="A137" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>1639</v>
@@ -51280,7 +51362,7 @@
     </row>
     <row r="138" spans="1:6" ht="75.75" customHeight="1">
       <c r="A138" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>589</v>
@@ -51298,7 +51380,7 @@
     </row>
     <row r="139" spans="1:6" ht="75.75" customHeight="1">
       <c r="A139" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>1631</v>
@@ -51316,7 +51398,7 @@
     </row>
     <row r="140" spans="1:6" ht="75.75" customHeight="1">
       <c r="A140" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>910</v>
@@ -51325,7 +51407,7 @@
         <v>911</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>6</v>
@@ -51334,7 +51416,7 @@
     </row>
     <row r="141" spans="1:6" ht="75.75" customHeight="1">
       <c r="A141" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>830</v>
@@ -51352,7 +51434,7 @@
     </row>
     <row r="142" spans="1:6" ht="75.75" customHeight="1">
       <c r="A142" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>283</v>
@@ -51361,7 +51443,7 @@
         <v>284</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="E142" s="21" t="s">
         <v>1731</v>
@@ -51370,7 +51452,7 @@
     </row>
     <row r="143" spans="1:6" ht="75.75" customHeight="1">
       <c r="A143" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>661</v>
@@ -51388,7 +51470,7 @@
     </row>
     <row r="144" spans="1:6" ht="75.75" customHeight="1">
       <c r="A144" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>740</v>
@@ -51406,7 +51488,7 @@
     </row>
     <row r="145" spans="1:6" ht="75.75" customHeight="1">
       <c r="A145" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B145" s="8" t="s">
         <v>286</v>
@@ -51424,7 +51506,7 @@
     </row>
     <row r="146" spans="1:6" ht="75.75" customHeight="1">
       <c r="A146" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B146" s="8" t="s">
         <v>582</v>
@@ -51442,7 +51524,7 @@
     </row>
     <row r="147" spans="1:6" ht="75.75" customHeight="1">
       <c r="A147" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B147" s="8" t="s">
         <v>664</v>
@@ -51460,7 +51542,7 @@
     </row>
     <row r="148" spans="1:6" ht="75.75" customHeight="1">
       <c r="A148" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B148" s="8" t="s">
         <v>632</v>
@@ -51478,7 +51560,7 @@
     </row>
     <row r="149" spans="1:6" ht="75.75" customHeight="1">
       <c r="A149" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>1016</v>
@@ -51487,7 +51569,7 @@
         <v>1017</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>6</v>
@@ -51496,7 +51578,7 @@
     </row>
     <row r="150" spans="1:6" ht="75.75" customHeight="1">
       <c r="A150" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>658</v>
@@ -51505,7 +51587,7 @@
         <v>1711</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>2211</v>
+        <v>2206</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>427</v>
@@ -51514,7 +51596,7 @@
     </row>
     <row r="151" spans="1:6" ht="75.75" customHeight="1">
       <c r="A151" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>763</v>
@@ -51523,7 +51605,7 @@
         <v>764</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>2184</v>
+        <v>2179</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>6</v>
@@ -51532,7 +51614,7 @@
     </row>
     <row r="152" spans="1:6" ht="75.75" customHeight="1">
       <c r="A152" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>796</v>
@@ -51550,7 +51632,7 @@
     </row>
     <row r="153" spans="1:6" ht="75.75" customHeight="1">
       <c r="A153" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>108</v>
@@ -51559,7 +51641,7 @@
         <v>109</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="E153" s="20" t="s">
         <v>12</v>
@@ -51568,7 +51650,7 @@
     </row>
     <row r="154" spans="1:6" ht="75.75" customHeight="1">
       <c r="A154" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>216</v>
@@ -51586,16 +51668,16 @@
     </row>
     <row r="155" spans="1:6" ht="75.75" customHeight="1">
       <c r="A155" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>289</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>1731</v>
@@ -51604,7 +51686,7 @@
     </row>
     <row r="156" spans="1:6" ht="75.75" customHeight="1">
       <c r="A156" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>985</v>
@@ -51622,7 +51704,7 @@
     </row>
     <row r="157" spans="1:6" ht="75.75" customHeight="1">
       <c r="A157" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>433</v>
@@ -51640,7 +51722,7 @@
     </row>
     <row r="158" spans="1:6" ht="75.75" customHeight="1">
       <c r="A158" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>972</v>
@@ -51649,7 +51731,7 @@
         <v>973</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>2193</v>
+        <v>2188</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>94</v>
@@ -51658,16 +51740,16 @@
     </row>
     <row r="159" spans="1:6" ht="75.75" customHeight="1">
       <c r="A159" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>422</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>423</v>
@@ -51676,7 +51758,7 @@
     </row>
     <row r="160" spans="1:6" ht="75.75" customHeight="1">
       <c r="A160" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>425</v>
@@ -51694,7 +51776,7 @@
     </row>
     <row r="161" spans="1:6" ht="75.75" customHeight="1">
       <c r="A161" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>1063</v>
@@ -51712,7 +51794,7 @@
     </row>
     <row r="162" spans="1:6" ht="75.75" customHeight="1">
       <c r="A162" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>510</v>
@@ -51730,7 +51812,7 @@
     </row>
     <row r="163" spans="1:6" ht="75.75" customHeight="1">
       <c r="A163" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>569</v>
@@ -51748,7 +51830,7 @@
     </row>
     <row r="164" spans="1:6" ht="75.75" customHeight="1">
       <c r="A164" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>1278</v>
@@ -51757,7 +51839,7 @@
         <v>1788</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>94</v>
@@ -51766,7 +51848,7 @@
     </row>
     <row r="165" spans="1:6" ht="75.75" customHeight="1">
       <c r="A165" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>1463</v>
@@ -51784,7 +51866,7 @@
     </row>
     <row r="166" spans="1:6" ht="75.75" customHeight="1">
       <c r="A166" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>516</v>
@@ -51802,7 +51884,7 @@
     </row>
     <row r="167" spans="1:6" ht="75.75" customHeight="1">
       <c r="A167" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>199</v>
@@ -51820,7 +51902,7 @@
     </row>
     <row r="168" spans="1:6" ht="75.75" customHeight="1">
       <c r="A168" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>999</v>
@@ -51838,7 +51920,7 @@
     </row>
     <row r="169" spans="1:6" ht="75.75" customHeight="1">
       <c r="A169" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>688</v>
@@ -51856,7 +51938,7 @@
     </row>
     <row r="170" spans="1:6" ht="75.75" customHeight="1">
       <c r="A170" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>971</v>
@@ -51874,7 +51956,7 @@
     </row>
     <row r="171" spans="1:6" ht="75.75" customHeight="1">
       <c r="A171" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>1298</v>
@@ -51892,7 +51974,7 @@
     </row>
     <row r="172" spans="1:6" ht="75.75" customHeight="1">
       <c r="A172" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>1599</v>
@@ -51910,7 +51992,7 @@
     </row>
     <row r="173" spans="1:6" ht="75.75" customHeight="1">
       <c r="A173" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>481</v>
@@ -51928,7 +52010,7 @@
     </row>
     <row r="174" spans="1:6" ht="75.75" customHeight="1">
       <c r="A174" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>1188</v>
@@ -51946,7 +52028,7 @@
     </row>
     <row r="175" spans="1:6" ht="75.75" customHeight="1">
       <c r="A175" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>1564</v>
@@ -51964,7 +52046,7 @@
     </row>
     <row r="176" spans="1:6" ht="75.75" customHeight="1">
       <c r="A176" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>1745</v>
@@ -51982,7 +52064,7 @@
     </row>
     <row r="177" spans="1:6" ht="75.75" customHeight="1">
       <c r="A177" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>1498</v>
@@ -52000,7 +52082,7 @@
     </row>
     <row r="178" spans="1:6" ht="75.75" customHeight="1">
       <c r="A178" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>1428</v>
@@ -52018,7 +52100,7 @@
     </row>
     <row r="179" spans="1:6" ht="75.75" customHeight="1">
       <c r="A179" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>1370</v>
@@ -52036,7 +52118,7 @@
     </row>
     <row r="180" spans="1:6" s="23" customFormat="1" ht="75.75" customHeight="1">
       <c r="A180" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>1071</v>
@@ -52045,7 +52127,7 @@
         <v>1072</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>427</v>
@@ -52054,10 +52136,10 @@
     </row>
     <row r="181" spans="1:6" ht="75.75" customHeight="1">
       <c r="A181" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>526</v>
@@ -52072,7 +52154,7 @@
     </row>
     <row r="182" spans="1:6" ht="75.75" customHeight="1">
       <c r="A182" s="36" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>827</v>
@@ -52090,7 +52172,7 @@
     </row>
     <row r="183" spans="1:6" ht="75.75" customHeight="1">
       <c r="A183" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>1541</v>
@@ -52108,7 +52190,7 @@
     </row>
     <row r="184" spans="1:6" ht="75.75" customHeight="1">
       <c r="A184" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>951</v>
@@ -52126,7 +52208,7 @@
     </row>
     <row r="185" spans="1:6" ht="75.75" customHeight="1">
       <c r="A185" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>1220</v>
@@ -52144,7 +52226,7 @@
     </row>
     <row r="186" spans="1:6" ht="75.75" customHeight="1">
       <c r="A186" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>1130</v>
@@ -52162,7 +52244,7 @@
     </row>
     <row r="187" spans="1:6" ht="75.75" customHeight="1">
       <c r="A187" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>537</v>
@@ -52171,7 +52253,7 @@
         <v>538</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>423</v>
@@ -52180,7 +52262,7 @@
     </row>
     <row r="188" spans="1:6" ht="75.75" customHeight="1">
       <c r="A188" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>1425</v>
@@ -52189,7 +52271,7 @@
         <v>1426</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>2207</v>
+        <v>2202</v>
       </c>
       <c r="E188" s="20" t="s">
         <v>6</v>
@@ -52198,7 +52280,7 @@
     </row>
     <row r="189" spans="1:6" ht="75.75" customHeight="1">
       <c r="A189" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>1257</v>
@@ -52216,7 +52298,7 @@
     </row>
     <row r="190" spans="1:6" ht="75.75" customHeight="1">
       <c r="A190" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>1276</v>
@@ -52225,7 +52307,7 @@
         <v>1277</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>12</v>
@@ -52234,7 +52316,7 @@
     </row>
     <row r="191" spans="1:6" ht="75.75" customHeight="1">
       <c r="A191" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>1474</v>
@@ -52243,7 +52325,7 @@
         <v>1475</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>2206</v>
+        <v>2201</v>
       </c>
       <c r="E191" s="20" t="s">
         <v>94</v>
@@ -52252,7 +52334,7 @@
     </row>
     <row r="192" spans="1:6" ht="75.75" customHeight="1">
       <c r="A192" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>809</v>
@@ -52261,7 +52343,7 @@
         <v>810</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>339</v>
@@ -52270,7 +52352,7 @@
     </row>
     <row r="193" spans="1:6" ht="75.75" customHeight="1">
       <c r="A193" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>54</v>
@@ -52288,7 +52370,7 @@
     </row>
     <row r="194" spans="1:6" ht="75.75" customHeight="1">
       <c r="A194" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>110</v>
@@ -52306,7 +52388,7 @@
     </row>
     <row r="195" spans="1:6" ht="75.75" customHeight="1">
       <c r="A195" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>24</v>
@@ -52324,7 +52406,7 @@
     </row>
     <row r="196" spans="1:6" ht="75.75" customHeight="1">
       <c r="A196" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>988</v>
@@ -52342,7 +52424,7 @@
     </row>
     <row r="197" spans="1:6" ht="75.75" customHeight="1">
       <c r="A197" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>614</v>
@@ -52360,7 +52442,7 @@
     </row>
     <row r="198" spans="1:6" ht="75.75" customHeight="1">
       <c r="A198" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>292</v>
@@ -52369,7 +52451,7 @@
         <v>293</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>1731</v>
@@ -52378,7 +52460,7 @@
     </row>
     <row r="199" spans="1:6" ht="75.75" customHeight="1">
       <c r="A199" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>113</v>
@@ -52396,7 +52478,7 @@
     </row>
     <row r="200" spans="1:6" ht="75.75" customHeight="1">
       <c r="A200" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>896</v>
@@ -52414,7 +52496,7 @@
     </row>
     <row r="201" spans="1:6" ht="75.75" customHeight="1">
       <c r="A201" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>564</v>
@@ -52432,7 +52514,7 @@
     </row>
     <row r="202" spans="1:6" ht="75.75" customHeight="1">
       <c r="A202" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>1438</v>
@@ -52450,7 +52532,7 @@
     </row>
     <row r="203" spans="1:6" ht="75.75" customHeight="1">
       <c r="A203" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>1652</v>
@@ -52468,7 +52550,7 @@
     </row>
     <row r="204" spans="1:6" ht="75.75" customHeight="1">
       <c r="A204" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>1548</v>
@@ -52486,7 +52568,7 @@
     </row>
     <row r="205" spans="1:6" ht="75.75" customHeight="1">
       <c r="A205" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>544</v>
@@ -52495,7 +52577,7 @@
         <v>545</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>421</v>
@@ -52504,7 +52586,7 @@
     </row>
     <row r="206" spans="1:6" ht="75.75" customHeight="1">
       <c r="A206" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>1390</v>
@@ -52522,7 +52604,7 @@
     </row>
     <row r="207" spans="1:6" ht="75.75" customHeight="1">
       <c r="A207" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>148</v>
@@ -52531,7 +52613,7 @@
         <v>149</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="E207" s="21" t="s">
         <v>1731</v>
@@ -52540,7 +52622,7 @@
     </row>
     <row r="208" spans="1:6" ht="75.75" customHeight="1">
       <c r="A208" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>1356</v>
@@ -52558,7 +52640,7 @@
     </row>
     <row r="209" spans="1:6" ht="75.75" customHeight="1">
       <c r="A209" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>1460</v>
@@ -52576,7 +52658,7 @@
     </row>
     <row r="210" spans="1:6" ht="75.75" customHeight="1">
       <c r="A210" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>1384</v>
@@ -52594,7 +52676,7 @@
     </row>
     <row r="211" spans="1:6" ht="75.75" customHeight="1">
       <c r="A211" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>1214</v>
@@ -52612,7 +52694,7 @@
     </row>
     <row r="212" spans="1:6" ht="75.75" customHeight="1">
       <c r="A212" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B212" s="8" t="s">
         <v>294</v>
@@ -52621,7 +52703,7 @@
         <v>295</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="E212" s="21" t="s">
         <v>1731</v>
@@ -52630,7 +52712,7 @@
     </row>
     <row r="213" spans="1:6" ht="75.75" customHeight="1">
       <c r="A213" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>296</v>
@@ -52639,7 +52721,7 @@
         <v>297</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="E213" s="21" t="s">
         <v>1731</v>
@@ -52648,7 +52730,7 @@
     </row>
     <row r="214" spans="1:6" ht="75.75" customHeight="1">
       <c r="A214" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>771</v>
@@ -52666,7 +52748,7 @@
     </row>
     <row r="215" spans="1:6" ht="75.75" customHeight="1">
       <c r="A215" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B215" s="8" t="s">
         <v>298</v>
@@ -52675,7 +52757,7 @@
         <v>299</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="E215" s="21" t="s">
         <v>300</v>
@@ -52684,7 +52766,7 @@
     </row>
     <row r="216" spans="1:6" ht="75.75" customHeight="1">
       <c r="A216" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>1410</v>
@@ -52702,7 +52784,7 @@
     </row>
     <row r="217" spans="1:6" ht="75.75" customHeight="1">
       <c r="A217" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>773</v>
@@ -52720,7 +52802,7 @@
     </row>
     <row r="218" spans="1:6" ht="75.75" customHeight="1">
       <c r="A218" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>817</v>
@@ -52729,7 +52811,7 @@
         <v>818</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>12</v>
@@ -52738,7 +52820,7 @@
     </row>
     <row r="219" spans="1:6" ht="75.75" customHeight="1">
       <c r="A219" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>301</v>
@@ -52756,7 +52838,7 @@
     </row>
     <row r="220" spans="1:6" ht="75.75" customHeight="1">
       <c r="A220" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>587</v>
@@ -52765,7 +52847,7 @@
         <v>588</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>2137</v>
+        <v>2132</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>427</v>
@@ -52774,7 +52856,7 @@
     </row>
     <row r="221" spans="1:6" ht="75.75" customHeight="1">
       <c r="A221" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>1737</v>
@@ -52792,7 +52874,7 @@
     </row>
     <row r="222" spans="1:6" ht="75.75" customHeight="1">
       <c r="A222" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>1217</v>
@@ -52810,7 +52892,7 @@
     </row>
     <row r="223" spans="1:6" ht="75.75" customHeight="1">
       <c r="A223" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>1241</v>
@@ -52828,7 +52910,7 @@
     </row>
     <row r="224" spans="1:6" ht="75.75" customHeight="1">
       <c r="A224" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>1469</v>
@@ -52846,7 +52928,7 @@
     </row>
     <row r="225" spans="1:6" ht="75.75" customHeight="1">
       <c r="A225" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>567</v>
@@ -52855,7 +52937,7 @@
         <v>568</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>421</v>
@@ -52864,7 +52946,7 @@
     </row>
     <row r="226" spans="1:6" ht="75.75" customHeight="1">
       <c r="A226" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>1646</v>
@@ -52873,7 +52955,7 @@
         <v>1647</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>1957</v>
+        <v>1953</v>
       </c>
       <c r="E226" s="21" t="s">
         <v>1731</v>
@@ -52882,7 +52964,7 @@
     </row>
     <row r="227" spans="1:6" ht="75.75" customHeight="1">
       <c r="A227" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>1078</v>
@@ -52891,7 +52973,7 @@
         <v>1079</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>424</v>
@@ -52900,7 +52982,7 @@
     </row>
     <row r="228" spans="1:6" ht="75.75" customHeight="1">
       <c r="A228" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>789</v>
@@ -52918,7 +53000,7 @@
     </row>
     <row r="229" spans="1:6" ht="75.75" customHeight="1">
       <c r="A229" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>1561</v>
@@ -52936,7 +53018,7 @@
     </row>
     <row r="230" spans="1:6" ht="75.75" customHeight="1">
       <c r="A230" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>191</v>
@@ -52945,7 +53027,7 @@
         <v>192</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="E230" s="20" t="s">
         <v>6</v>
@@ -52954,7 +53036,7 @@
     </row>
     <row r="231" spans="1:6" ht="75.75" customHeight="1">
       <c r="A231" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>1512</v>
@@ -52972,7 +53054,7 @@
     </row>
     <row r="232" spans="1:6" ht="75.75" customHeight="1">
       <c r="A232" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>1155</v>
@@ -52990,7 +53072,7 @@
     </row>
     <row r="233" spans="1:6" ht="75.75" customHeight="1">
       <c r="A233" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>732</v>
@@ -53008,7 +53090,7 @@
     </row>
     <row r="234" spans="1:6" ht="75.75" customHeight="1">
       <c r="A234" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>304</v>
@@ -53017,7 +53099,7 @@
         <v>305</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="E234" s="21" t="s">
         <v>6</v>
@@ -53026,7 +53108,7 @@
     </row>
     <row r="235" spans="1:6" ht="75.75" customHeight="1">
       <c r="A235" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>1706</v>
@@ -53044,7 +53126,7 @@
     </row>
     <row r="236" spans="1:6" ht="75.75" customHeight="1">
       <c r="A236" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>306</v>
@@ -53062,7 +53144,7 @@
     </row>
     <row r="237" spans="1:6" ht="75.75" customHeight="1">
       <c r="A237" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>1651</v>
@@ -53071,7 +53153,7 @@
         <v>1679</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="E237" s="21" t="s">
         <v>1731</v>
@@ -53080,7 +53162,7 @@
     </row>
     <row r="238" spans="1:6" ht="75.75" customHeight="1">
       <c r="A238" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>161</v>
@@ -53098,7 +53180,7 @@
     </row>
     <row r="239" spans="1:6" ht="75.75" customHeight="1">
       <c r="A239" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>594</v>
@@ -53107,7 +53189,7 @@
         <v>1680</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>427</v>
@@ -53116,7 +53198,7 @@
     </row>
     <row r="240" spans="1:6" ht="75.75" customHeight="1">
       <c r="A240" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>221</v>
@@ -53134,7 +53216,7 @@
     </row>
     <row r="241" spans="1:6" ht="75.75" customHeight="1">
       <c r="A241" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>1407</v>
@@ -53152,7 +53234,7 @@
     </row>
     <row r="242" spans="1:6" ht="75.75" customHeight="1">
       <c r="A242" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>802</v>
@@ -53170,7 +53252,7 @@
     </row>
     <row r="243" spans="1:6" ht="75.75" customHeight="1">
       <c r="A243" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>1523</v>
@@ -53179,7 +53261,7 @@
         <v>1524</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="E243" s="21" t="s">
         <v>1731</v>
@@ -53188,7 +53270,7 @@
     </row>
     <row r="244" spans="1:6" ht="75.75" customHeight="1">
       <c r="A244" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>1083</v>
@@ -53206,7 +53288,7 @@
     </row>
     <row r="245" spans="1:6" ht="75.75" customHeight="1">
       <c r="A245" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>1351</v>
@@ -53215,7 +53297,7 @@
         <v>1352</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>2186</v>
+        <v>2181</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>16</v>
@@ -53224,7 +53306,7 @@
     </row>
     <row r="246" spans="1:6" ht="75.75" customHeight="1">
       <c r="A246" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>468</v>
@@ -53242,7 +53324,7 @@
     </row>
     <row r="247" spans="1:6" ht="75.75" customHeight="1">
       <c r="A247" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>1594</v>
@@ -53251,7 +53333,7 @@
         <v>1595</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>409</v>
@@ -53260,7 +53342,7 @@
     </row>
     <row r="248" spans="1:6" ht="75.75" customHeight="1">
       <c r="A248" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>129</v>
@@ -53278,7 +53360,7 @@
     </row>
     <row r="249" spans="1:6" ht="75.75" customHeight="1">
       <c r="A249" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>644</v>
@@ -53296,7 +53378,7 @@
     </row>
     <row r="250" spans="1:6" ht="75.75" customHeight="1">
       <c r="A250" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>309</v>
@@ -53314,7 +53396,7 @@
     </row>
     <row r="251" spans="1:6" ht="75.75" customHeight="1">
       <c r="A251" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>794</v>
@@ -53323,7 +53405,7 @@
         <v>795</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>2225</v>
+        <v>2220</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>375</v>
@@ -53332,7 +53414,7 @@
     </row>
     <row r="252" spans="1:6" ht="75.75" customHeight="1">
       <c r="A252" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>33</v>
@@ -53341,7 +53423,7 @@
         <v>34</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>2191</v>
+        <v>2186</v>
       </c>
       <c r="E252" s="20" t="s">
         <v>8</v>
@@ -53350,7 +53432,7 @@
     </row>
     <row r="253" spans="1:6" ht="75.75" customHeight="1">
       <c r="A253" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>1119</v>
@@ -53368,7 +53450,7 @@
     </row>
     <row r="254" spans="1:6" ht="75.75" customHeight="1">
       <c r="A254" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>312</v>
@@ -53377,7 +53459,7 @@
         <v>313</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>2215</v>
+        <v>2210</v>
       </c>
       <c r="E254" s="21" t="s">
         <v>1731</v>
@@ -53386,7 +53468,7 @@
     </row>
     <row r="255" spans="1:6" ht="75.75" customHeight="1">
       <c r="A255" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>683</v>
@@ -53395,7 +53477,7 @@
         <v>684</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>427</v>
@@ -53404,7 +53486,7 @@
     </row>
     <row r="256" spans="1:6" ht="75.75" customHeight="1">
       <c r="A256" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>836</v>
@@ -53422,7 +53504,7 @@
     </row>
     <row r="257" spans="1:6" ht="75.75" customHeight="1">
       <c r="A257" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>1048</v>
@@ -53440,7 +53522,7 @@
     </row>
     <row r="258" spans="1:6" ht="75.75" customHeight="1">
       <c r="A258" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>776</v>
@@ -53449,7 +53531,7 @@
         <v>777</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>101</v>
@@ -53458,7 +53540,7 @@
     </row>
     <row r="259" spans="1:6" ht="75.75" customHeight="1">
       <c r="A259" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>672</v>
@@ -53467,7 +53549,7 @@
         <v>673</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>427</v>
@@ -53476,7 +53558,7 @@
     </row>
     <row r="260" spans="1:6" ht="75.75" customHeight="1">
       <c r="A260" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>436</v>
@@ -53494,7 +53576,7 @@
     </row>
     <row r="261" spans="1:6" ht="75.75" customHeight="1">
       <c r="A261" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>159</v>
@@ -53503,7 +53585,7 @@
         <v>160</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>2224</v>
+        <v>2219</v>
       </c>
       <c r="E261" s="20" t="s">
         <v>72</v>
@@ -53512,7 +53594,7 @@
     </row>
     <row r="262" spans="1:6" ht="75.75" customHeight="1">
       <c r="A262" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>314</v>
@@ -53530,7 +53612,7 @@
     </row>
     <row r="263" spans="1:6" ht="75.75" customHeight="1">
       <c r="A263" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>91</v>
@@ -53548,7 +53630,7 @@
     </row>
     <row r="264" spans="1:6" ht="75.75" customHeight="1">
       <c r="A264" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>915</v>
@@ -53566,7 +53648,7 @@
     </row>
     <row r="265" spans="1:6" ht="75.75" customHeight="1">
       <c r="A265" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>1199</v>
@@ -53584,7 +53666,7 @@
     </row>
     <row r="266" spans="1:6" ht="75.75" customHeight="1">
       <c r="A266" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>888</v>
@@ -53602,7 +53684,7 @@
     </row>
     <row r="267" spans="1:6" ht="75.75" customHeight="1">
       <c r="A267" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>140</v>
@@ -53620,7 +53702,7 @@
     </row>
     <row r="268" spans="1:6" ht="75.75" customHeight="1">
       <c r="A268" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>1111</v>
@@ -53638,7 +53720,7 @@
     </row>
     <row r="269" spans="1:6" ht="75.75" customHeight="1">
       <c r="A269" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>980</v>
@@ -53656,7 +53738,7 @@
     </row>
     <row r="270" spans="1:6" ht="75.75" customHeight="1">
       <c r="A270" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>1031</v>
@@ -53674,7 +53756,7 @@
     </row>
     <row r="271" spans="1:6" ht="75.75" customHeight="1">
       <c r="A271" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>805</v>
@@ -53683,7 +53765,7 @@
         <v>806</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>6</v>
@@ -53692,7 +53774,7 @@
     </row>
     <row r="272" spans="1:6" ht="75.75" customHeight="1">
       <c r="A272" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>1525</v>
@@ -53701,7 +53783,7 @@
         <v>1526</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="E272" s="21" t="s">
         <v>1731</v>
@@ -53710,7 +53792,7 @@
     </row>
     <row r="273" spans="1:6" ht="75.75" customHeight="1">
       <c r="A273" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>430</v>
@@ -53728,7 +53810,7 @@
     </row>
     <row r="274" spans="1:6" ht="75.75" customHeight="1">
       <c r="A274" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>1509</v>
@@ -53746,7 +53828,7 @@
     </row>
     <row r="275" spans="1:6" ht="75.75" customHeight="1">
       <c r="A275" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>9</v>
@@ -53764,7 +53846,7 @@
     </row>
     <row r="276" spans="1:6" ht="75.75" customHeight="1">
       <c r="A276" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>20</v>
@@ -53773,7 +53855,7 @@
         <v>21</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>2128</v>
+        <v>2123</v>
       </c>
       <c r="E276" s="20" t="s">
         <v>8</v>
@@ -53782,7 +53864,7 @@
     </row>
     <row r="277" spans="1:6" ht="75.75" customHeight="1">
       <c r="A277" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>880</v>
@@ -53800,7 +53882,7 @@
     </row>
     <row r="278" spans="1:6" ht="75.75" customHeight="1">
       <c r="A278" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>1106</v>
@@ -53818,7 +53900,7 @@
     </row>
     <row r="279" spans="1:6" ht="75.75" customHeight="1">
       <c r="A279" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>1307</v>
@@ -53827,7 +53909,7 @@
         <v>1308</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>6</v>
@@ -53836,7 +53918,7 @@
     </row>
     <row r="280" spans="1:6" ht="75.75" customHeight="1">
       <c r="A280" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>1536</v>
@@ -53854,7 +53936,7 @@
     </row>
     <row r="281" spans="1:6" ht="75.75" customHeight="1">
       <c r="A281" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>1644</v>
@@ -53863,7 +53945,7 @@
         <v>1645</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E281" s="21" t="s">
         <v>1731</v>
@@ -53872,7 +53954,7 @@
     </row>
     <row r="282" spans="1:6" ht="75.75" customHeight="1">
       <c r="A282" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>482</v>
@@ -53881,7 +53963,7 @@
         <v>483</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>409</v>
@@ -53890,7 +53972,7 @@
     </row>
     <row r="283" spans="1:6" ht="75.75" customHeight="1">
       <c r="A283" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>1614</v>
@@ -53908,7 +53990,7 @@
     </row>
     <row r="284" spans="1:6" ht="75.75" customHeight="1">
       <c r="A284" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>996</v>
@@ -53926,7 +54008,7 @@
     </row>
     <row r="285" spans="1:6" ht="75.75" customHeight="1">
       <c r="A285" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>1114</v>
@@ -53935,7 +54017,7 @@
         <v>1115</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>444</v>
@@ -53944,7 +54026,7 @@
     </row>
     <row r="286" spans="1:6" ht="75.75" customHeight="1">
       <c r="A286" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>1496</v>
@@ -53953,7 +54035,7 @@
         <v>1497</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="E286" s="21" t="s">
         <v>1731</v>
@@ -53962,7 +54044,7 @@
     </row>
     <row r="287" spans="1:6" ht="75.75" customHeight="1">
       <c r="A287" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>1147</v>
@@ -53980,7 +54062,7 @@
     </row>
     <row r="288" spans="1:6" ht="75.75" customHeight="1">
       <c r="A288" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B288" s="7" t="s">
         <v>97</v>
@@ -53998,7 +54080,7 @@
     </row>
     <row r="289" spans="1:6" ht="75.75" customHeight="1">
       <c r="A289" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B289" s="7" t="s">
         <v>237</v>
@@ -54016,7 +54098,7 @@
     </row>
     <row r="290" spans="1:6" ht="75.75" customHeight="1">
       <c r="A290" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>1108</v>
@@ -54034,7 +54116,7 @@
     </row>
     <row r="291" spans="1:6" ht="75.75" customHeight="1">
       <c r="A291" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>541</v>
@@ -54052,7 +54134,7 @@
     </row>
     <row r="292" spans="1:6" ht="75.75" customHeight="1">
       <c r="A292" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>680</v>
@@ -54070,7 +54152,7 @@
     </row>
     <row r="293" spans="1:6" ht="75.75" customHeight="1">
       <c r="A293" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>1066</v>
@@ -54079,7 +54161,7 @@
         <v>1067</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>444</v>
@@ -54088,7 +54170,7 @@
     </row>
     <row r="294" spans="1:6" ht="75.75" customHeight="1">
       <c r="A294" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B294" s="8" t="s">
         <v>317</v>
@@ -54106,7 +54188,7 @@
     </row>
     <row r="295" spans="1:6" ht="75.75" customHeight="1">
       <c r="A295" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>621</v>
@@ -54124,7 +54206,7 @@
     </row>
     <row r="296" spans="1:6" ht="75.75" customHeight="1">
       <c r="A296" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>186</v>
@@ -54133,7 +54215,7 @@
         <v>187</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="E296" s="20" t="s">
         <v>16</v>
@@ -54142,7 +54224,7 @@
     </row>
     <row r="297" spans="1:6" ht="75.75" customHeight="1">
       <c r="A297" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>439</v>
@@ -54160,7 +54242,7 @@
     </row>
     <row r="298" spans="1:6" ht="75.75" customHeight="1">
       <c r="A298" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>78</v>
@@ -54178,7 +54260,7 @@
     </row>
     <row r="299" spans="1:6" ht="75.75" customHeight="1">
       <c r="A299" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>1127</v>
@@ -54196,7 +54278,7 @@
     </row>
     <row r="300" spans="1:6" ht="75.75" customHeight="1">
       <c r="A300" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>1202</v>
@@ -54214,7 +54296,7 @@
     </row>
     <row r="301" spans="1:6" ht="75.75" customHeight="1">
       <c r="A301" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B301" s="8" t="s">
         <v>320</v>
@@ -54223,7 +54305,7 @@
         <v>321</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="E301" s="21" t="s">
         <v>412</v>
@@ -54232,7 +54314,7 @@
     </row>
     <row r="302" spans="1:6" ht="75.75" customHeight="1">
       <c r="A302" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B302" s="6" t="s">
         <v>1315</v>
@@ -54250,7 +54332,7 @@
     </row>
     <row r="303" spans="1:6" ht="75.75" customHeight="1">
       <c r="A303" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B303" s="8" t="s">
         <v>322</v>
@@ -54268,7 +54350,7 @@
     </row>
     <row r="304" spans="1:6" ht="75.75" customHeight="1">
       <c r="A304" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B304" s="8" t="s">
         <v>325</v>
@@ -54286,7 +54368,7 @@
     </row>
     <row r="305" spans="1:6" ht="75.75" customHeight="1">
       <c r="A305" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B305" s="8" t="s">
         <v>328</v>
@@ -54304,7 +54386,7 @@
     </row>
     <row r="306" spans="1:6" ht="75.75" customHeight="1">
       <c r="A306" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>1485</v>
@@ -54322,7 +54404,7 @@
     </row>
     <row r="307" spans="1:6" ht="75.75" customHeight="1">
       <c r="A307" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>938</v>
@@ -54340,7 +54422,7 @@
     </row>
     <row r="308" spans="1:6" ht="75.75" customHeight="1">
       <c r="A308" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B308" s="6" t="s">
         <v>1232</v>
@@ -54349,7 +54431,7 @@
         <v>1789</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>427</v>
@@ -54358,7 +54440,7 @@
     </row>
     <row r="309" spans="1:6" ht="75.75" customHeight="1">
       <c r="A309" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B309" s="6" t="s">
         <v>1279</v>
@@ -54376,7 +54458,7 @@
     </row>
     <row r="310" spans="1:6" ht="75.75" customHeight="1">
       <c r="A310" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>514</v>
@@ -54394,7 +54476,7 @@
     </row>
     <row r="311" spans="1:6" ht="75.75" customHeight="1">
       <c r="A311" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B311" s="6" t="s">
         <v>694</v>
@@ -54403,7 +54485,7 @@
         <v>1684</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="E311" s="20" t="s">
         <v>424</v>
@@ -54412,7 +54494,7 @@
     </row>
     <row r="312" spans="1:6" ht="75.75" customHeight="1">
       <c r="A312" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>833</v>
@@ -54430,7 +54512,7 @@
     </row>
     <row r="313" spans="1:6" ht="75.75" customHeight="1">
       <c r="A313" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B313" s="8" t="s">
         <v>331</v>
@@ -54448,7 +54530,7 @@
     </row>
     <row r="314" spans="1:6" ht="75.75" customHeight="1">
       <c r="A314" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>5</v>
@@ -54457,7 +54539,7 @@
         <v>1667</v>
       </c>
       <c r="D314" s="8" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="E314" s="20" t="s">
         <v>6</v>
@@ -54466,7 +54548,7 @@
     </row>
     <row r="315" spans="1:6" ht="75.75" customHeight="1">
       <c r="A315" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>1432</v>
@@ -54484,7 +54566,7 @@
     </row>
     <row r="316" spans="1:6" ht="75.75" customHeight="1">
       <c r="A316" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B316" s="6" t="s">
         <v>1602</v>
@@ -54502,7 +54584,7 @@
     </row>
     <row r="317" spans="1:6" ht="75.75" customHeight="1">
       <c r="A317" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>1464</v>
@@ -54511,7 +54593,7 @@
         <v>1465</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="E317" s="20" t="s">
         <v>12</v>
@@ -54520,7 +54602,7 @@
     </row>
     <row r="318" spans="1:6" ht="75.75" customHeight="1">
       <c r="A318" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>46</v>
@@ -54529,7 +54611,7 @@
         <v>47</v>
       </c>
       <c r="D318" s="8" t="s">
-        <v>2157</v>
+        <v>2152</v>
       </c>
       <c r="E318" s="20" t="s">
         <v>6</v>
@@ -54538,7 +54620,7 @@
     </row>
     <row r="319" spans="1:6" ht="75.75" customHeight="1">
       <c r="A319" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>595</v>
@@ -54556,7 +54638,7 @@
     </row>
     <row r="320" spans="1:6" ht="75.75" customHeight="1">
       <c r="A320" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B320" s="6" t="s">
         <v>585</v>
@@ -54565,7 +54647,7 @@
         <v>586</v>
       </c>
       <c r="D320" s="8" t="s">
-        <v>2198</v>
+        <v>2193</v>
       </c>
       <c r="E320" s="3" t="s">
         <v>427</v>
@@ -54574,7 +54656,7 @@
     </row>
     <row r="321" spans="1:6" ht="75.75" customHeight="1">
       <c r="A321" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B321" s="6" t="s">
         <v>877</v>
@@ -54592,7 +54674,7 @@
     </row>
     <row r="322" spans="1:6" ht="75.75" customHeight="1">
       <c r="A322" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>230</v>
@@ -54610,7 +54692,7 @@
     </row>
     <row r="323" spans="1:6" ht="75.75" customHeight="1">
       <c r="A323" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B323" s="6" t="s">
         <v>1348</v>
@@ -54628,7 +54710,7 @@
     </row>
     <row r="324" spans="1:6" ht="75.75" customHeight="1">
       <c r="A324" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>209</v>
@@ -54637,7 +54719,7 @@
         <v>210</v>
       </c>
       <c r="D324" s="8" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="E324" s="20" t="s">
         <v>94</v>
@@ -54646,7 +54728,7 @@
     </row>
     <row r="325" spans="1:6" ht="75.75" customHeight="1">
       <c r="A325" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B325" s="6" t="s">
         <v>903</v>
@@ -54664,7 +54746,7 @@
     </row>
     <row r="326" spans="1:6" ht="75.75" customHeight="1">
       <c r="A326" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>1608</v>
@@ -54682,7 +54764,7 @@
     </row>
     <row r="327" spans="1:6" ht="75.75" customHeight="1">
       <c r="A327" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B327" s="6" t="s">
         <v>1517</v>
@@ -54700,7 +54782,7 @@
     </row>
     <row r="328" spans="1:6" ht="75.75" customHeight="1">
       <c r="A328" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B328" s="6" t="s">
         <v>1586</v>
@@ -54718,7 +54800,7 @@
     </row>
     <row r="329" spans="1:6" ht="75.75" customHeight="1">
       <c r="A329" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>1334</v>
@@ -54736,7 +54818,7 @@
     </row>
     <row r="330" spans="1:6" ht="75.75" customHeight="1">
       <c r="A330" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B330" s="6" t="s">
         <v>1136</v>
@@ -54754,7 +54836,7 @@
     </row>
     <row r="331" spans="1:6" ht="75.75" customHeight="1">
       <c r="A331" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B331" s="6" t="s">
         <v>1368</v>
@@ -54772,7 +54854,7 @@
     </row>
     <row r="332" spans="1:6" ht="75.75" customHeight="1">
       <c r="A332" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>765</v>
@@ -54790,7 +54872,7 @@
     </row>
     <row r="333" spans="1:6" ht="75.75" customHeight="1">
       <c r="A333" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>1051</v>
@@ -54808,7 +54890,7 @@
     </row>
     <row r="334" spans="1:6" ht="75.75" customHeight="1">
       <c r="A334" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B334" s="6" t="s">
         <v>1080</v>
@@ -54826,7 +54908,7 @@
     </row>
     <row r="335" spans="1:6" ht="75.75" customHeight="1">
       <c r="A335" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B335" s="6" t="s">
         <v>1309</v>
@@ -54844,7 +54926,7 @@
     </row>
     <row r="336" spans="1:6" ht="75.75" customHeight="1">
       <c r="A336" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>1529</v>
@@ -54862,7 +54944,7 @@
     </row>
     <row r="337" spans="1:6" ht="75.75" customHeight="1">
       <c r="A337" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>1142</v>
@@ -54880,7 +54962,7 @@
     </row>
     <row r="338" spans="1:6" ht="75.75" customHeight="1">
       <c r="A338" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>1002</v>
@@ -54898,7 +54980,7 @@
     </row>
     <row r="339" spans="1:6" ht="75.75" customHeight="1">
       <c r="A339" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>1580</v>
@@ -54916,7 +54998,7 @@
     </row>
     <row r="340" spans="1:6" ht="75.75" customHeight="1">
       <c r="A340" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B340" s="7" t="s">
         <v>57</v>
@@ -54934,7 +55016,7 @@
     </row>
     <row r="341" spans="1:6" ht="75.75" customHeight="1">
       <c r="A341" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>961</v>
@@ -54943,7 +55025,7 @@
         <v>962</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="E341" s="3" t="s">
         <v>6</v>
@@ -54952,7 +55034,7 @@
     </row>
     <row r="342" spans="1:6" ht="75.75" customHeight="1">
       <c r="A342" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>726</v>
@@ -54970,7 +55052,7 @@
     </row>
     <row r="343" spans="1:6" ht="75.75" customHeight="1">
       <c r="A343" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>1569</v>
@@ -54979,7 +55061,7 @@
         <v>1570</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>2042</v>
+        <v>2037</v>
       </c>
       <c r="E343" s="21" t="s">
         <v>1731</v>
@@ -54988,7 +55070,7 @@
     </row>
     <row r="344" spans="1:6" ht="75.75" customHeight="1">
       <c r="A344" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B344" s="6" t="s">
         <v>916</v>
@@ -55006,7 +55088,7 @@
     </row>
     <row r="345" spans="1:6" ht="75.75" customHeight="1">
       <c r="A345" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>692</v>
@@ -55015,7 +55097,7 @@
         <v>693</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>2143</v>
+        <v>2138</v>
       </c>
       <c r="E345" s="3" t="s">
         <v>427</v>
@@ -55024,7 +55106,7 @@
     </row>
     <row r="346" spans="1:6" ht="75.75" customHeight="1">
       <c r="A346" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>721</v>
@@ -55042,7 +55124,7 @@
     </row>
     <row r="347" spans="1:6" ht="75.75" customHeight="1">
       <c r="A347" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B347" s="7" t="s">
         <v>137</v>
@@ -55060,7 +55142,7 @@
     </row>
     <row r="348" spans="1:6" ht="75.75" customHeight="1">
       <c r="A348" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>1503</v>
@@ -55078,7 +55160,7 @@
     </row>
     <row r="349" spans="1:6" ht="75.75" customHeight="1">
       <c r="A349" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>224</v>
@@ -55096,7 +55178,7 @@
     </row>
     <row r="350" spans="1:6" ht="75.75" customHeight="1">
       <c r="A350" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>143</v>
@@ -55114,7 +55196,7 @@
     </row>
     <row r="351" spans="1:6" ht="75.75" customHeight="1">
       <c r="A351" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>745</v>
@@ -55132,7 +55214,7 @@
     </row>
     <row r="352" spans="1:6" ht="75.75" customHeight="1">
       <c r="A352" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>1341</v>
@@ -55150,7 +55232,7 @@
     </row>
     <row r="353" spans="1:6" ht="75.75" customHeight="1">
       <c r="A353" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B353" s="7" t="s">
         <v>146</v>
@@ -55159,7 +55241,7 @@
         <v>147</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>2196</v>
+        <v>2191</v>
       </c>
       <c r="E353" s="21" t="s">
         <v>1731</v>
@@ -55168,7 +55250,7 @@
     </row>
     <row r="354" spans="1:6" ht="75.75" customHeight="1">
       <c r="A354" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>1235</v>
@@ -55186,7 +55268,7 @@
     </row>
     <row r="355" spans="1:6" ht="75.75" customHeight="1">
       <c r="A355" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>1301</v>
@@ -55204,7 +55286,7 @@
     </row>
     <row r="356" spans="1:6" ht="75.75" customHeight="1">
       <c r="A356" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>700</v>
@@ -55222,7 +55304,7 @@
     </row>
     <row r="357" spans="1:6" ht="75.75" customHeight="1">
       <c r="A357" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>1312</v>
@@ -55240,7 +55322,7 @@
     </row>
     <row r="358" spans="1:6" ht="75.75" customHeight="1">
       <c r="A358" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>188</v>
@@ -55258,7 +55340,7 @@
     </row>
     <row r="359" spans="1:6" ht="75.75" customHeight="1">
       <c r="A359" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B359" s="7" t="s">
         <v>120</v>
@@ -55276,7 +55358,7 @@
     </row>
     <row r="360" spans="1:6" ht="75.75" customHeight="1">
       <c r="A360" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>431</v>
@@ -55285,7 +55367,7 @@
         <v>432</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>409</v>
@@ -55294,7 +55376,7 @@
     </row>
     <row r="361" spans="1:6" ht="75.75" customHeight="1">
       <c r="A361" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B361" s="7" t="s">
         <v>116</v>
@@ -55303,7 +55385,7 @@
         <v>117</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>2205</v>
+        <v>2200</v>
       </c>
       <c r="E361" s="21" t="s">
         <v>1731</v>
@@ -55312,7 +55394,7 @@
     </row>
     <row r="362" spans="1:6" ht="75.75" customHeight="1">
       <c r="A362" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B362" s="8" t="s">
         <v>334</v>
@@ -55330,7 +55412,7 @@
     </row>
     <row r="363" spans="1:6" ht="75.75" customHeight="1">
       <c r="A363" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B363" s="8" t="s">
         <v>337</v>
@@ -55348,7 +55430,7 @@
     </row>
     <row r="364" spans="1:6" ht="75.75" customHeight="1">
       <c r="A364" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>442</v>
@@ -55357,7 +55439,7 @@
         <v>443</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>2090</v>
+        <v>2085</v>
       </c>
       <c r="E364" s="3" t="s">
         <v>444</v>
@@ -55366,7 +55448,7 @@
     </row>
     <row r="365" spans="1:6" ht="75.75" customHeight="1">
       <c r="A365" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>941</v>
@@ -55384,7 +55466,7 @@
     </row>
     <row r="366" spans="1:6" ht="75.75" customHeight="1">
       <c r="A366" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>1396</v>
@@ -55402,7 +55484,7 @@
     </row>
     <row r="367" spans="1:6" ht="75.75" customHeight="1">
       <c r="A367" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>659</v>
@@ -55411,7 +55493,7 @@
         <v>660</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>2142</v>
+        <v>2137</v>
       </c>
       <c r="E367" s="3" t="s">
         <v>427</v>
@@ -55420,7 +55502,7 @@
     </row>
     <row r="368" spans="1:6" ht="75.75" customHeight="1">
       <c r="A368" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>792</v>
@@ -55429,7 +55511,7 @@
         <v>793</v>
       </c>
       <c r="D368" s="8" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="E368" s="3" t="s">
         <v>101</v>
@@ -55438,7 +55520,7 @@
     </row>
     <row r="369" spans="1:6" ht="75.75" customHeight="1">
       <c r="A369" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B369" s="8" t="s">
         <v>340</v>
@@ -55456,7 +55538,7 @@
     </row>
     <row r="370" spans="1:6" ht="75.75" customHeight="1">
       <c r="A370" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>825</v>
@@ -55465,7 +55547,7 @@
         <v>826</v>
       </c>
       <c r="D370" s="8" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="E370" s="3" t="s">
         <v>101</v>
@@ -55474,7 +55556,7 @@
     </row>
     <row r="371" spans="1:6" ht="75.75" customHeight="1">
       <c r="A371" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>1304</v>
@@ -55492,7 +55574,7 @@
     </row>
     <row r="372" spans="1:6" ht="75.75" customHeight="1">
       <c r="A372" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>1592</v>
@@ -55501,7 +55583,7 @@
         <v>1593</v>
       </c>
       <c r="D372" s="8" t="s">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>427</v>
@@ -55510,7 +55592,7 @@
     </row>
     <row r="373" spans="1:6" ht="75.75" customHeight="1">
       <c r="A373" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>1501</v>
@@ -55519,7 +55601,7 @@
         <v>1502</v>
       </c>
       <c r="D373" s="8" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="E373" s="3" t="s">
         <v>12</v>
@@ -55528,7 +55610,7 @@
     </row>
     <row r="374" spans="1:6" ht="75.75" customHeight="1">
       <c r="A374" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>546</v>
@@ -55546,7 +55628,7 @@
     </row>
     <row r="375" spans="1:6" ht="75.75" customHeight="1">
       <c r="A375" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B375" s="7" t="s">
         <v>172</v>
@@ -55555,7 +55637,7 @@
         <v>173</v>
       </c>
       <c r="D375" s="8" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="E375" s="20" t="s">
         <v>72</v>
@@ -55564,7 +55646,7 @@
     </row>
     <row r="376" spans="1:6" ht="75.75" customHeight="1">
       <c r="A376" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B376" s="7" t="s">
         <v>123</v>
@@ -55582,7 +55664,7 @@
     </row>
     <row r="377" spans="1:6" ht="75.75" customHeight="1">
       <c r="A377" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>1014</v>
@@ -55591,7 +55673,7 @@
         <v>1015</v>
       </c>
       <c r="D377" s="8" t="s">
-        <v>2189</v>
+        <v>2184</v>
       </c>
       <c r="E377" s="3" t="s">
         <v>104</v>
@@ -55600,7 +55682,7 @@
     </row>
     <row r="378" spans="1:6" ht="75.75" customHeight="1">
       <c r="A378" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>718</v>
@@ -55618,7 +55700,7 @@
     </row>
     <row r="379" spans="1:6" ht="75.75" customHeight="1">
       <c r="A379" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>1252</v>
@@ -55627,7 +55709,7 @@
         <v>1253</v>
       </c>
       <c r="D379" s="8" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="E379" s="3" t="s">
         <v>240</v>
@@ -55636,7 +55718,7 @@
     </row>
     <row r="380" spans="1:6" ht="75.75" customHeight="1">
       <c r="A380" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>592</v>
@@ -55645,7 +55727,7 @@
         <v>593</v>
       </c>
       <c r="D380" s="8" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>427</v>
@@ -55654,7 +55736,7 @@
     </row>
     <row r="381" spans="1:6" ht="75.75" customHeight="1">
       <c r="A381" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>949</v>
@@ -55663,7 +55745,7 @@
         <v>950</v>
       </c>
       <c r="D381" s="8" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="E381" s="3" t="s">
         <v>12</v>
@@ -55672,7 +55754,7 @@
     </row>
     <row r="382" spans="1:6" ht="75.75" customHeight="1">
       <c r="A382" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B382" s="7" t="s">
         <v>213</v>
@@ -55690,7 +55772,7 @@
     </row>
     <row r="383" spans="1:6" ht="75.75" customHeight="1">
       <c r="A383" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>670</v>
@@ -55699,7 +55781,7 @@
         <v>671</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="E383" s="3" t="s">
         <v>427</v>
@@ -55708,7 +55790,7 @@
     </row>
     <row r="384" spans="1:6" ht="75.75" customHeight="1">
       <c r="A384" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>1185</v>
@@ -55726,7 +55808,7 @@
     </row>
     <row r="385" spans="1:6" ht="75.75" customHeight="1">
       <c r="A385" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B385" s="7" t="s">
         <v>1451</v>
@@ -55744,7 +55826,7 @@
     </row>
     <row r="386" spans="1:6" ht="75.75" customHeight="1">
       <c r="A386" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>738</v>
@@ -55762,7 +55844,7 @@
     </row>
     <row r="387" spans="1:6" ht="75.75" customHeight="1">
       <c r="A387" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>599</v>
@@ -55780,7 +55862,7 @@
     </row>
     <row r="388" spans="1:6" ht="75.75" customHeight="1">
       <c r="A388" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>703</v>
@@ -55789,7 +55871,7 @@
         <v>704</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="E388" s="3" t="s">
         <v>427</v>
@@ -55798,7 +55880,7 @@
     </row>
     <row r="389" spans="1:6" ht="75.75" customHeight="1">
       <c r="A389" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B389" s="8" t="s">
         <v>343</v>
@@ -55807,7 +55889,7 @@
         <v>344</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="E389" s="21" t="s">
         <v>1731</v>
@@ -55816,7 +55898,7 @@
     </row>
     <row r="390" spans="1:6" ht="75.75" customHeight="1">
       <c r="A390" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B390" s="7" t="s">
         <v>69</v>
@@ -55834,7 +55916,7 @@
     </row>
     <row r="391" spans="1:6" ht="75.75" customHeight="1">
       <c r="A391" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>1057</v>
@@ -55852,7 +55934,7 @@
     </row>
     <row r="392" spans="1:6" ht="75.75" customHeight="1">
       <c r="A392" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B392" s="7" t="s">
         <v>1466</v>
@@ -55870,7 +55952,7 @@
     </row>
     <row r="393" spans="1:6" ht="75.75" customHeight="1">
       <c r="A393" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>635</v>
@@ -55888,7 +55970,7 @@
     </row>
     <row r="394" spans="1:6" ht="75.75" customHeight="1">
       <c r="A394" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>611</v>
@@ -55906,7 +55988,7 @@
     </row>
     <row r="395" spans="1:6" ht="75.75" customHeight="1">
       <c r="A395" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>854</v>
@@ -55915,7 +55997,7 @@
         <v>1668</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>12</v>
@@ -55924,7 +56006,7 @@
     </row>
     <row r="396" spans="1:6" ht="75.75" customHeight="1">
       <c r="A396" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B396" s="7" t="s">
         <v>164</v>
@@ -55942,7 +56024,7 @@
     </row>
     <row r="397" spans="1:6" ht="75.75" customHeight="1">
       <c r="A397" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>1149</v>
@@ -55960,7 +56042,7 @@
     </row>
     <row r="398" spans="1:6" ht="75.75" customHeight="1">
       <c r="A398" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B398" s="7" t="s">
         <v>193</v>
@@ -55978,7 +56060,7 @@
     </row>
     <row r="399" spans="1:6" ht="75.75" customHeight="1">
       <c r="A399" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B399" s="7" t="s">
         <v>167</v>
@@ -55987,7 +56069,7 @@
         <v>168</v>
       </c>
       <c r="D399" s="8" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="E399" s="20" t="s">
         <v>6</v>
@@ -55996,7 +56078,7 @@
     </row>
     <row r="400" spans="1:6" ht="75.75" customHeight="1">
       <c r="A400" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B400" s="7" t="s">
         <v>88</v>
@@ -56014,7 +56096,7 @@
     </row>
     <row r="401" spans="1:6" ht="75.75" customHeight="1">
       <c r="A401" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B401" s="7" t="s">
         <v>155</v>
@@ -56032,7 +56114,7 @@
     </row>
     <row r="402" spans="1:6" ht="75.75" customHeight="1">
       <c r="A402" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B402" s="7" t="s">
         <v>83</v>
@@ -56050,7 +56132,7 @@
     </row>
     <row r="403" spans="1:6" ht="75.75" customHeight="1">
       <c r="A403" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>647</v>
@@ -56068,7 +56150,7 @@
     </row>
     <row r="404" spans="1:6" ht="75.75" customHeight="1">
       <c r="A404" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>873</v>
@@ -56077,7 +56159,7 @@
         <v>874</v>
       </c>
       <c r="D404" s="8" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>12</v>
@@ -56086,7 +56168,7 @@
     </row>
     <row r="405" spans="1:6" ht="75.75" customHeight="1">
       <c r="A405" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>1182</v>
@@ -56104,7 +56186,7 @@
     </row>
     <row r="406" spans="1:6" ht="75.75" customHeight="1">
       <c r="A406" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B406" s="8" t="s">
         <v>345</v>
@@ -56122,7 +56204,7 @@
     </row>
     <row r="407" spans="1:6" ht="75.75" customHeight="1">
       <c r="A407" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B407" s="6" t="s">
         <v>752</v>
@@ -56140,7 +56222,7 @@
     </row>
     <row r="408" spans="1:6" ht="75.75" customHeight="1">
       <c r="A408" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B408" s="8" t="s">
         <v>348</v>
@@ -56158,7 +56240,7 @@
     </row>
     <row r="409" spans="1:6" ht="75.75" customHeight="1">
       <c r="A409" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>641</v>
@@ -56176,7 +56258,7 @@
     </row>
     <row r="410" spans="1:6" ht="75.75" customHeight="1">
       <c r="A410" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>1183</v>
@@ -56194,7 +56276,7 @@
     </row>
     <row r="411" spans="1:6" ht="75.75" customHeight="1">
       <c r="A411" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>1714</v>
@@ -56212,7 +56294,7 @@
     </row>
     <row r="412" spans="1:6" ht="75.75" customHeight="1">
       <c r="A412" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>1715</v>
@@ -56230,7 +56312,7 @@
     </row>
     <row r="413" spans="1:6" ht="75.75" customHeight="1">
       <c r="A413" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>1716</v>
@@ -56248,7 +56330,7 @@
     </row>
     <row r="414" spans="1:6" ht="75.75" customHeight="1">
       <c r="A414" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>1717</v>
@@ -56257,7 +56339,7 @@
         <v>1289</v>
       </c>
       <c r="D414" s="8" t="s">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="E414" s="3" t="s">
         <v>12</v>
@@ -56266,7 +56348,7 @@
     </row>
     <row r="415" spans="1:6" ht="75.75" customHeight="1">
       <c r="A415" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>1738</v>
@@ -56284,7 +56366,7 @@
     </row>
     <row r="416" spans="1:6" ht="75.75" customHeight="1">
       <c r="A416" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>528</v>
@@ -56302,7 +56384,7 @@
     </row>
     <row r="417" spans="1:6" ht="75.75" customHeight="1">
       <c r="A417" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B417" s="6" t="s">
         <v>502</v>
@@ -56320,7 +56402,7 @@
     </row>
     <row r="418" spans="1:6" ht="75.75" customHeight="1">
       <c r="A418" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>484</v>
@@ -56338,7 +56420,7 @@
     </row>
     <row r="419" spans="1:6" ht="75.75" customHeight="1">
       <c r="A419" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B419" s="6" t="s">
         <v>1282</v>
@@ -56347,7 +56429,7 @@
         <v>1792</v>
       </c>
       <c r="D419" s="8" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>94</v>
@@ -56356,7 +56438,7 @@
     </row>
     <row r="420" spans="1:6" ht="75.75" customHeight="1">
       <c r="A420" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>1164</v>
@@ -56374,7 +56456,7 @@
     </row>
     <row r="421" spans="1:6" ht="75.75" customHeight="1">
       <c r="A421" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B421" s="7" t="s">
         <v>405</v>
@@ -56383,7 +56465,7 @@
         <v>406</v>
       </c>
       <c r="D421" s="8" t="s">
-        <v>2135</v>
+        <v>2130</v>
       </c>
       <c r="E421" s="21" t="s">
         <v>1731</v>
@@ -56392,7 +56474,7 @@
     </row>
     <row r="422" spans="1:6" ht="75.75" customHeight="1">
       <c r="A422" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B422" s="7" t="s">
         <v>178</v>
@@ -56410,7 +56492,7 @@
     </row>
     <row r="423" spans="1:6" ht="75.75" customHeight="1">
       <c r="A423" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B423" s="8" t="s">
         <v>353</v>
@@ -56428,7 +56510,7 @@
     </row>
     <row r="424" spans="1:6" ht="75.75" customHeight="1">
       <c r="A424" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>598</v>
@@ -56437,7 +56519,7 @@
         <v>1718</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>427</v>
@@ -56446,7 +56528,7 @@
     </row>
     <row r="425" spans="1:6" ht="75.75" customHeight="1">
       <c r="A425" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B425" s="6" t="s">
         <v>808</v>
@@ -56464,7 +56546,7 @@
     </row>
     <row r="426" spans="1:6" ht="75.75" customHeight="1">
       <c r="A426" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>1272</v>
@@ -56482,7 +56564,7 @@
     </row>
     <row r="427" spans="1:6" ht="75.75" customHeight="1">
       <c r="A427" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>463</v>
@@ -56491,7 +56573,7 @@
         <v>464</v>
       </c>
       <c r="D427" s="8" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>455</v>
@@ -56500,7 +56582,7 @@
     </row>
     <row r="428" spans="1:6" ht="75.75" customHeight="1">
       <c r="A428" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>415</v>
@@ -56509,7 +56591,7 @@
         <v>1703</v>
       </c>
       <c r="D428" s="8" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="E428" s="3" t="s">
         <v>409</v>
@@ -56518,7 +56600,7 @@
     </row>
     <row r="429" spans="1:6" ht="75.75" customHeight="1">
       <c r="A429" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>1139</v>
@@ -56536,7 +56618,7 @@
     </row>
     <row r="430" spans="1:6" ht="75.75" customHeight="1">
       <c r="A430" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B430" s="7" t="s">
         <v>102</v>
@@ -56545,7 +56627,7 @@
         <v>103</v>
       </c>
       <c r="D430" s="8" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="E430" s="20" t="s">
         <v>104</v>
@@ -56554,7 +56636,7 @@
     </row>
     <row r="431" spans="1:6" ht="75.75" customHeight="1">
       <c r="A431" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B431" s="6" t="s">
         <v>629</v>
@@ -56572,7 +56654,7 @@
     </row>
     <row r="432" spans="1:6" ht="75.75" customHeight="1">
       <c r="A432" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>452</v>
@@ -56590,7 +56672,7 @@
     </row>
     <row r="433" spans="1:6" ht="75.75" customHeight="1">
       <c r="A433" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>1472</v>
@@ -56599,7 +56681,7 @@
         <v>1473</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="E433" s="20" t="s">
         <v>12</v>
@@ -56608,7 +56690,7 @@
     </row>
     <row r="434" spans="1:6" ht="75.75" customHeight="1">
       <c r="A434" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>1041</v>
@@ -56626,7 +56708,7 @@
     </row>
     <row r="435" spans="1:6" ht="75.75" customHeight="1">
       <c r="A435" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B435" s="8" t="s">
         <v>356</v>
@@ -56635,7 +56717,7 @@
         <v>357</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="E435" s="21" t="s">
         <v>1731</v>
@@ -56644,7 +56726,7 @@
     </row>
     <row r="436" spans="1:6" ht="75.75" customHeight="1">
       <c r="A436" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>1103</v>
@@ -56662,7 +56744,7 @@
     </row>
     <row r="437" spans="1:6" ht="75.75" customHeight="1">
       <c r="A437" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B437" s="7" t="s">
         <v>35</v>
@@ -56680,7 +56762,7 @@
     </row>
     <row r="438" spans="1:6" ht="75.75" customHeight="1">
       <c r="A438" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B438" s="7" t="s">
         <v>66</v>
@@ -56698,7 +56780,7 @@
     </row>
     <row r="439" spans="1:6" ht="75.75" customHeight="1">
       <c r="A439" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B439" s="6" t="s">
         <v>478</v>
@@ -56716,7 +56798,7 @@
     </row>
     <row r="440" spans="1:6" ht="75.75" customHeight="1">
       <c r="A440" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B440" s="7" t="s">
         <v>169</v>
@@ -56734,7 +56816,7 @@
     </row>
     <row r="441" spans="1:6" ht="75.75" customHeight="1">
       <c r="A441" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B441" s="6" t="s">
         <v>428</v>
@@ -56743,7 +56825,7 @@
         <v>429</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="E441" s="3" t="s">
         <v>427</v>
@@ -56752,7 +56834,7 @@
     </row>
     <row r="442" spans="1:6" ht="75.75" customHeight="1">
       <c r="A442" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>685</v>
@@ -56770,7 +56852,7 @@
     </row>
     <row r="443" spans="1:6" ht="75.75" customHeight="1">
       <c r="A443" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B443" s="7" t="s">
         <v>177</v>
@@ -56779,7 +56861,7 @@
         <v>1821</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="E443" s="20" t="s">
         <v>72</v>
@@ -56788,7 +56870,7 @@
     </row>
     <row r="444" spans="1:6" ht="75.75" customHeight="1">
       <c r="A444" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B444" s="7" t="s">
         <v>43</v>
@@ -56806,7 +56888,7 @@
     </row>
     <row r="445" spans="1:6" ht="75.75" customHeight="1">
       <c r="A445" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B445" s="6" t="s">
         <v>1100</v>
@@ -56824,7 +56906,7 @@
     </row>
     <row r="446" spans="1:6" ht="75.75" customHeight="1">
       <c r="A446" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>507</v>
@@ -56842,7 +56924,7 @@
     </row>
     <row r="447" spans="1:6" ht="75.75" customHeight="1">
       <c r="A447" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B447" s="7" t="s">
         <v>1739</v>
@@ -56860,7 +56942,7 @@
     </row>
     <row r="448" spans="1:6" ht="75.75" customHeight="1">
       <c r="A448" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>1024</v>
@@ -56869,7 +56951,7 @@
         <v>1705</v>
       </c>
       <c r="D448" s="8" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>6</v>
@@ -56878,7 +56960,7 @@
     </row>
     <row r="449" spans="1:6" ht="75.75" customHeight="1">
       <c r="A449" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B449" s="6" t="s">
         <v>1596</v>
@@ -56896,7 +56978,7 @@
     </row>
     <row r="450" spans="1:6" ht="75.75" customHeight="1">
       <c r="A450" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B450" s="7" t="s">
         <v>27</v>
@@ -56914,7 +56996,7 @@
     </row>
     <row r="451" spans="1:6" ht="75.75" customHeight="1">
       <c r="A451" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B451" s="6" t="s">
         <v>549</v>
@@ -56932,7 +57014,7 @@
     </row>
     <row r="452" spans="1:6" ht="75.75" customHeight="1">
       <c r="A452" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>534</v>
@@ -56950,7 +57032,7 @@
     </row>
     <row r="453" spans="1:6" ht="75.75" customHeight="1">
       <c r="A453" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B453" s="6" t="s">
         <v>1152</v>
@@ -56968,7 +57050,7 @@
     </row>
     <row r="454" spans="1:6" ht="75.75" customHeight="1">
       <c r="A454" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>1033</v>
@@ -56986,7 +57068,7 @@
     </row>
     <row r="455" spans="1:6" ht="75.75" customHeight="1">
       <c r="A455" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B455" s="6" t="s">
         <v>650</v>
@@ -57004,7 +57086,7 @@
     </row>
     <row r="456" spans="1:6" ht="75.75" customHeight="1">
       <c r="A456" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>653</v>
@@ -57022,7 +57104,7 @@
     </row>
     <row r="457" spans="1:6" ht="75.75" customHeight="1">
       <c r="A457" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B457" s="6" t="s">
         <v>579</v>
@@ -57031,7 +57113,7 @@
         <v>580</v>
       </c>
       <c r="D457" s="8" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>455</v>
@@ -57040,7 +57122,7 @@
     </row>
     <row r="458" spans="1:6" ht="75.75" customHeight="1">
       <c r="A458" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B458" s="8" t="s">
         <v>358</v>
@@ -57058,7 +57140,7 @@
     </row>
     <row r="459" spans="1:6" ht="75.75" customHeight="1">
       <c r="A459" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B459" s="6" t="s">
         <v>456</v>
@@ -57076,7 +57158,7 @@
     </row>
     <row r="460" spans="1:6" ht="75.75" customHeight="1">
       <c r="A460" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B460" s="7" t="s">
         <v>132</v>
@@ -57094,7 +57176,7 @@
     </row>
     <row r="461" spans="1:6" ht="75.75" customHeight="1">
       <c r="A461" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>852</v>
@@ -57103,7 +57185,7 @@
         <v>853</v>
       </c>
       <c r="D461" s="8" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="E461" s="3" t="s">
         <v>12</v>
@@ -57112,7 +57194,7 @@
     </row>
     <row r="462" spans="1:6" ht="75.75" customHeight="1">
       <c r="A462" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B462" s="6" t="s">
         <v>931</v>
@@ -57130,7 +57212,7 @@
     </row>
     <row r="463" spans="1:6" ht="75.75" customHeight="1">
       <c r="A463" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>555</v>
@@ -57148,7 +57230,7 @@
     </row>
     <row r="464" spans="1:6" ht="75.75" customHeight="1">
       <c r="A464" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B464" s="7" t="s">
         <v>63</v>
@@ -57166,7 +57248,7 @@
     </row>
     <row r="465" spans="1:6" ht="75.75" customHeight="1">
       <c r="A465" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>1629</v>
@@ -57175,7 +57257,7 @@
         <v>1726</v>
       </c>
       <c r="D465" s="8" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>409</v>
@@ -57184,7 +57266,7 @@
     </row>
     <row r="466" spans="1:6" ht="75.75" customHeight="1">
       <c r="A466" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B466" s="7" t="s">
         <v>22</v>
@@ -57193,7 +57275,7 @@
         <v>23</v>
       </c>
       <c r="D466" s="8" t="s">
-        <v>2134</v>
+        <v>2129</v>
       </c>
       <c r="E466" s="20" t="s">
         <v>12</v>
@@ -57202,7 +57284,7 @@
     </row>
     <row r="467" spans="1:6" ht="75.75" customHeight="1">
       <c r="A467" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>556</v>
@@ -57220,7 +57302,7 @@
     </row>
     <row r="468" spans="1:6" ht="75.75" customHeight="1">
       <c r="A468" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B468" s="8" t="s">
         <v>361</v>
@@ -57238,16 +57320,16 @@
     </row>
     <row r="469" spans="1:6" ht="117.75" customHeight="1">
       <c r="A469" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B469" s="6" t="s">
         <v>581</v>
       </c>
       <c r="C469" s="11" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="D469" s="8" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="E469" s="3" t="s">
         <v>421</v>
@@ -57256,7 +57338,7 @@
     </row>
     <row r="470" spans="1:6" ht="75.75" customHeight="1">
       <c r="A470" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B470" s="6" t="s">
         <v>1626</v>
@@ -57274,7 +57356,7 @@
     </row>
     <row r="471" spans="1:6" ht="75.75" customHeight="1">
       <c r="A471" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B471" s="6" t="s">
         <v>1589</v>
@@ -57292,7 +57374,7 @@
     </row>
     <row r="472" spans="1:6" ht="75.75" customHeight="1">
       <c r="A472" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B472" s="7" t="s">
         <v>1740</v>
@@ -57301,7 +57383,7 @@
         <v>1805</v>
       </c>
       <c r="D472" s="8" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E472" s="20" t="s">
         <v>1729</v>
@@ -57310,7 +57392,7 @@
     </row>
     <row r="473" spans="1:6" ht="75.75" customHeight="1">
       <c r="A473" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B473" s="6" t="s">
         <v>1556</v>
@@ -57328,7 +57410,7 @@
     </row>
     <row r="474" spans="1:6" ht="75.75" customHeight="1">
       <c r="A474" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B474" s="6" t="s">
         <v>667</v>
@@ -57346,7 +57428,7 @@
     </row>
     <row r="475" spans="1:6" ht="75.75" customHeight="1">
       <c r="A475" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B475" s="6" t="s">
         <v>1577</v>
@@ -57364,7 +57446,7 @@
     </row>
     <row r="476" spans="1:6" ht="75.75" customHeight="1">
       <c r="A476" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>1611</v>
@@ -57382,7 +57464,7 @@
     </row>
     <row r="477" spans="1:6" ht="75.75" customHeight="1">
       <c r="A477" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B477" s="6" t="s">
         <v>1092</v>
@@ -57400,7 +57482,7 @@
     </row>
     <row r="478" spans="1:6" ht="75.75" customHeight="1">
       <c r="A478" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>605</v>
@@ -57418,7 +57500,7 @@
     </row>
     <row r="479" spans="1:6" ht="75.75" customHeight="1">
       <c r="A479" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B479" s="6" t="s">
         <v>1173</v>
@@ -57436,7 +57518,7 @@
     </row>
     <row r="480" spans="1:6" ht="75.75" customHeight="1">
       <c r="A480" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>1732</v>
@@ -57454,7 +57536,7 @@
     </row>
     <row r="481" spans="1:6" ht="75.75" customHeight="1">
       <c r="A481" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>1359</v>
@@ -57472,7 +57554,7 @@
     </row>
     <row r="482" spans="1:6" ht="75.75" customHeight="1">
       <c r="A482" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B482" s="6" t="s">
         <v>1508</v>
@@ -57481,7 +57563,7 @@
         <v>1663</v>
       </c>
       <c r="D482" s="8" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="E482" s="3" t="s">
         <v>12</v>
@@ -57490,7 +57572,7 @@
     </row>
     <row r="483" spans="1:6" ht="75.75" customHeight="1">
       <c r="A483" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B483" s="6" t="s">
         <v>407</v>
@@ -57499,7 +57581,7 @@
         <v>408</v>
       </c>
       <c r="D483" s="8" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="E483" s="3" t="s">
         <v>409</v>
@@ -57508,7 +57590,7 @@
     </row>
     <row r="484" spans="1:6" ht="75.75" customHeight="1">
       <c r="A484" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B484" s="8" t="s">
         <v>364</v>
@@ -57517,7 +57599,7 @@
         <v>1752</v>
       </c>
       <c r="D484" s="8" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="E484" s="21" t="s">
         <v>1731</v>
@@ -57526,7 +57608,7 @@
     </row>
     <row r="485" spans="1:6" ht="75.75" customHeight="1">
       <c r="A485" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>1544</v>
@@ -57535,7 +57617,7 @@
         <v>1545</v>
       </c>
       <c r="D485" s="8" t="s">
-        <v>2145</v>
+        <v>2140</v>
       </c>
       <c r="E485" s="3" t="s">
         <v>12</v>
@@ -57544,13 +57626,13 @@
     </row>
     <row r="486" spans="1:6" ht="75.75" customHeight="1">
       <c r="A486" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>1661</v>
       </c>
       <c r="C486" s="11" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="D486" s="8" t="s">
         <v>1662</v>
@@ -57562,7 +57644,7 @@
     </row>
     <row r="487" spans="1:6" ht="75.75" customHeight="1">
       <c r="A487" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B487" s="6" t="s">
         <v>608</v>
@@ -57580,7 +57662,7 @@
     </row>
     <row r="488" spans="1:6" ht="75.75" customHeight="1">
       <c r="A488" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B488" s="7" t="s">
         <v>1457</v>
@@ -57598,7 +57680,7 @@
     </row>
     <row r="489" spans="1:6" ht="75.75" customHeight="1">
       <c r="A489" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B489" s="9" t="s">
         <v>52</v>
@@ -57607,7 +57689,7 @@
         <v>53</v>
       </c>
       <c r="D489" s="8" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="E489" s="20" t="s">
         <v>8</v>
@@ -57616,7 +57698,7 @@
     </row>
     <row r="490" spans="1:6" ht="75.75" customHeight="1">
       <c r="A490" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B490" s="6" t="s">
         <v>1054</v>
@@ -57634,7 +57716,7 @@
     </row>
     <row r="491" spans="1:6" ht="75.75" customHeight="1">
       <c r="A491" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B491" s="6" t="s">
         <v>1571</v>
@@ -57652,7 +57734,7 @@
     </row>
     <row r="492" spans="1:6" ht="75.75" customHeight="1">
       <c r="A492" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B492" s="6" t="s">
         <v>841</v>
@@ -57661,7 +57743,7 @@
         <v>842</v>
       </c>
       <c r="D492" s="8" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="E492" s="3" t="s">
         <v>6</v>
@@ -57670,7 +57752,7 @@
     </row>
     <row r="493" spans="1:6" ht="75.75" customHeight="1">
       <c r="A493" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B493" s="6" t="s">
         <v>893</v>
@@ -57688,7 +57770,7 @@
     </row>
     <row r="494" spans="1:6" ht="75.75" customHeight="1">
       <c r="A494" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B494" s="6" t="s">
         <v>496</v>
@@ -57706,7 +57788,7 @@
     </row>
     <row r="495" spans="1:6" ht="75.75" customHeight="1">
       <c r="A495" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>799</v>
@@ -57724,7 +57806,7 @@
     </row>
     <row r="496" spans="1:6" ht="75.75" customHeight="1">
       <c r="A496" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B496" s="6" t="s">
         <v>1179</v>
@@ -57742,7 +57824,7 @@
     </row>
     <row r="497" spans="1:6" ht="75.75" customHeight="1">
       <c r="A497" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B497" s="6" t="s">
         <v>715</v>
@@ -57760,7 +57842,7 @@
     </row>
     <row r="498" spans="1:6" ht="75.75" customHeight="1">
       <c r="A498" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B498" s="6" t="s">
         <v>885</v>
@@ -57778,7 +57860,7 @@
     </row>
     <row r="499" spans="1:6" ht="75.75" customHeight="1">
       <c r="A499" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B499" s="6" t="s">
         <v>1365</v>
@@ -57796,7 +57878,7 @@
     </row>
     <row r="500" spans="1:6" ht="75.75" customHeight="1">
       <c r="A500" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>1158</v>
@@ -57814,7 +57896,7 @@
     </row>
     <row r="501" spans="1:6" ht="75.75" customHeight="1">
       <c r="A501" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B501" s="6" t="s">
         <v>1488</v>
@@ -57832,7 +57914,7 @@
     </row>
     <row r="502" spans="1:6" ht="75.75" customHeight="1">
       <c r="A502" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B502" s="6" t="s">
         <v>1260</v>
@@ -57850,7 +57932,7 @@
     </row>
     <row r="503" spans="1:6" ht="75.75" customHeight="1">
       <c r="A503" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>712</v>
@@ -57868,7 +57950,7 @@
     </row>
     <row r="504" spans="1:6" ht="75.75" customHeight="1">
       <c r="A504" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B504" s="8" t="s">
         <v>1746</v>
@@ -57886,7 +57968,7 @@
     </row>
     <row r="505" spans="1:6" ht="75.75" customHeight="1">
       <c r="A505" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B505" s="6" t="s">
         <v>1194</v>
@@ -57895,7 +57977,7 @@
         <v>1195</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="E505" s="3" t="s">
         <v>427</v>
@@ -57904,7 +57986,7 @@
     </row>
     <row r="506" spans="1:6" ht="75.75" customHeight="1">
       <c r="A506" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B506" s="6" t="s">
         <v>1039</v>
@@ -57913,7 +57995,7 @@
         <v>1040</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="E506" s="3" t="s">
         <v>409</v>
@@ -57922,7 +58004,7 @@
     </row>
     <row r="507" spans="1:6" ht="75.75" customHeight="1">
       <c r="A507" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B507" s="6" t="s">
         <v>679</v>
@@ -57940,7 +58022,7 @@
     </row>
     <row r="508" spans="1:6" ht="75.75" customHeight="1">
       <c r="A508" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B508" s="7" t="s">
         <v>118</v>
@@ -57949,7 +58031,7 @@
         <v>1704</v>
       </c>
       <c r="D508" s="8" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="E508" s="3" t="s">
         <v>12</v>
@@ -57958,7 +58040,7 @@
     </row>
     <row r="509" spans="1:6" ht="75.75" customHeight="1">
       <c r="A509" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B509" s="8" t="s">
         <v>367</v>
@@ -57976,7 +58058,7 @@
     </row>
     <row r="510" spans="1:6" ht="75.75" customHeight="1">
       <c r="A510" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B510" s="7" t="s">
         <v>126</v>
@@ -57994,7 +58076,7 @@
     </row>
     <row r="511" spans="1:6" ht="75.75" customHeight="1">
       <c r="A511" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>870</v>
@@ -58012,7 +58094,7 @@
     </row>
     <row r="512" spans="1:6" ht="75.75" customHeight="1">
       <c r="A512" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>846</v>
@@ -58030,7 +58112,7 @@
     </row>
     <row r="513" spans="1:6" ht="75.75" customHeight="1">
       <c r="A513" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>928</v>
@@ -58048,7 +58130,7 @@
     </row>
     <row r="514" spans="1:6" ht="75.75" customHeight="1">
       <c r="A514" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B514" s="8" t="s">
         <v>369</v>
@@ -58066,7 +58148,7 @@
     </row>
     <row r="515" spans="1:6" ht="75.75" customHeight="1">
       <c r="A515" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>749</v>
@@ -58084,7 +58166,7 @@
     </row>
     <row r="516" spans="1:6" ht="75.75" customHeight="1">
       <c r="A516" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B516" s="6" t="s">
         <v>695</v>
@@ -58102,7 +58184,7 @@
     </row>
     <row r="517" spans="1:6" ht="75.75" customHeight="1">
       <c r="A517" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>723</v>
@@ -58120,7 +58202,7 @@
     </row>
     <row r="518" spans="1:6" ht="75.75" customHeight="1">
       <c r="A518" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B518" s="8" t="s">
         <v>373</v>
@@ -58129,7 +58211,7 @@
         <v>374</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="E518" s="21" t="s">
         <v>375</v>
@@ -58138,7 +58220,7 @@
     </row>
     <row r="519" spans="1:6" ht="75.75" customHeight="1">
       <c r="A519" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B519" s="6" t="s">
         <v>935</v>
@@ -58156,7 +58238,7 @@
     </row>
     <row r="520" spans="1:6" ht="75.75" customHeight="1">
       <c r="A520" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B520" s="7" t="s">
         <v>205</v>
@@ -58165,7 +58247,7 @@
         <v>206</v>
       </c>
       <c r="D520" s="8" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="E520" s="20" t="s">
         <v>12</v>
@@ -58174,7 +58256,7 @@
     </row>
     <row r="521" spans="1:6" ht="75.75" customHeight="1">
       <c r="A521" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B521" s="6" t="s">
         <v>1648</v>
@@ -58192,7 +58274,7 @@
     </row>
     <row r="522" spans="1:6" ht="75.75" customHeight="1">
       <c r="A522" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B522" s="6" t="s">
         <v>1062</v>
@@ -58210,7 +58292,7 @@
     </row>
     <row r="523" spans="1:6" ht="75.75" customHeight="1">
       <c r="A523" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B523" s="6" t="s">
         <v>1011</v>
@@ -58228,7 +58310,7 @@
     </row>
     <row r="524" spans="1:6" ht="75.75" customHeight="1">
       <c r="A524" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B524" s="6" t="s">
         <v>461</v>
@@ -58246,7 +58328,7 @@
     </row>
     <row r="525" spans="1:6" ht="75.75" customHeight="1">
       <c r="A525" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B525" s="6" t="s">
         <v>1008</v>
@@ -58255,7 +58337,7 @@
         <v>1009</v>
       </c>
       <c r="D525" s="8" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="E525" s="3" t="s">
         <v>72</v>
@@ -58264,7 +58346,7 @@
     </row>
     <row r="526" spans="1:6" ht="75.75" customHeight="1">
       <c r="A526" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B526" s="7" t="s">
         <v>1454</v>
@@ -58282,7 +58364,7 @@
     </row>
     <row r="527" spans="1:6" ht="75.75" customHeight="1">
       <c r="A527" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B527" s="6" t="s">
         <v>676</v>
@@ -58300,7 +58382,7 @@
     </row>
     <row r="528" spans="1:6" ht="75.75" customHeight="1">
       <c r="A528" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B528" s="7" t="s">
         <v>13</v>
@@ -58318,7 +58400,7 @@
     </row>
     <row r="529" spans="1:6" ht="75.75" customHeight="1">
       <c r="A529" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B529" s="6" t="s">
         <v>974</v>
@@ -58336,7 +58418,7 @@
     </row>
     <row r="530" spans="1:6" ht="75.75" customHeight="1">
       <c r="A530" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B530" s="8" t="s">
         <v>376</v>
@@ -58354,7 +58436,7 @@
     </row>
     <row r="531" spans="1:6" ht="75.75" customHeight="1">
       <c r="A531" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B531" s="6" t="s">
         <v>958</v>
@@ -58372,7 +58454,7 @@
     </row>
     <row r="532" spans="1:6" ht="75.75" customHeight="1">
       <c r="A532" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B532" s="7" t="s">
         <v>181</v>
@@ -58381,7 +58463,7 @@
         <v>182</v>
       </c>
       <c r="D532" s="8" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="E532" s="20" t="s">
         <v>12</v>
@@ -58390,7 +58472,7 @@
     </row>
     <row r="533" spans="1:6" ht="75.75" customHeight="1">
       <c r="A533" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B533" s="8" t="s">
         <v>1762</v>
@@ -58399,7 +58481,7 @@
         <v>379</v>
       </c>
       <c r="D533" s="8" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="E533" s="21" t="s">
         <v>1731</v>
@@ -58408,7 +58490,7 @@
     </row>
     <row r="534" spans="1:6" ht="75.75" customHeight="1">
       <c r="A534" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B534" s="6" t="s">
         <v>1763</v>
@@ -58426,7 +58508,7 @@
     </row>
     <row r="535" spans="1:6" ht="75.75" customHeight="1">
       <c r="A535" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B535" s="6" t="s">
         <v>1764</v>
@@ -58444,7 +58526,7 @@
     </row>
     <row r="536" spans="1:6" ht="75.75" customHeight="1">
       <c r="A536" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B536" s="6" t="s">
         <v>1765</v>
@@ -58462,7 +58544,7 @@
     </row>
     <row r="537" spans="1:6" ht="75.75" customHeight="1">
       <c r="A537" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B537" s="6" t="s">
         <v>1766</v>
@@ -58480,7 +58562,7 @@
     </row>
     <row r="538" spans="1:6" ht="75.75" customHeight="1">
       <c r="A538" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B538" s="6" t="s">
         <v>1767</v>
@@ -58498,7 +58580,7 @@
     </row>
     <row r="539" spans="1:6" ht="75.75" customHeight="1">
       <c r="A539" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B539" s="8" t="s">
         <v>1768</v>
@@ -58516,7 +58598,7 @@
     </row>
     <row r="540" spans="1:6" ht="75.75" customHeight="1">
       <c r="A540" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B540" s="8" t="s">
         <v>1769</v>
@@ -58534,7 +58616,7 @@
     </row>
     <row r="541" spans="1:6" ht="75.75" customHeight="1">
       <c r="A541" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B541" s="6" t="s">
         <v>1816</v>
@@ -58552,7 +58634,7 @@
     </row>
     <row r="542" spans="1:6" ht="75.75" customHeight="1">
       <c r="A542" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B542" s="6" t="s">
         <v>1770</v>
@@ -58570,7 +58652,7 @@
     </row>
     <row r="543" spans="1:6" ht="75.75" customHeight="1">
       <c r="A543" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B543" s="6" t="s">
         <v>1771</v>
@@ -58588,7 +58670,7 @@
     </row>
     <row r="544" spans="1:6" ht="75.75" customHeight="1">
       <c r="A544" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>1773</v>
@@ -58606,7 +58688,7 @@
     </row>
     <row r="545" spans="1:6" ht="75.75" customHeight="1">
       <c r="A545" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B545" s="6" t="s">
         <v>1774</v>
@@ -58624,7 +58706,7 @@
     </row>
     <row r="546" spans="1:6" ht="75.75" customHeight="1">
       <c r="A546" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B546" s="6" t="s">
         <v>1775</v>
@@ -58633,7 +58715,7 @@
         <v>1720</v>
       </c>
       <c r="D546" s="8" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="E546" s="20" t="s">
         <v>16</v>
@@ -58642,7 +58724,7 @@
     </row>
     <row r="547" spans="1:6" ht="75.75" customHeight="1">
       <c r="A547" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B547" s="6" t="s">
         <v>1776</v>
@@ -58660,7 +58742,7 @@
     </row>
     <row r="548" spans="1:6" ht="75.75" customHeight="1">
       <c r="A548" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B548" s="6" t="s">
         <v>1778</v>
@@ -58678,7 +58760,7 @@
     </row>
     <row r="549" spans="1:6" ht="75.75" customHeight="1">
       <c r="A549" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B549" s="6" t="s">
         <v>1779</v>
@@ -58696,7 +58778,7 @@
     </row>
     <row r="550" spans="1:6" ht="75.75" customHeight="1">
       <c r="A550" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B550" s="8" t="s">
         <v>1780</v>
@@ -58714,7 +58796,7 @@
     </row>
     <row r="551" spans="1:6" ht="75.75" customHeight="1">
       <c r="A551" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B551" s="6" t="s">
         <v>1781</v>
@@ -58723,7 +58805,7 @@
         <v>488</v>
       </c>
       <c r="D551" s="8" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="E551" s="3" t="s">
         <v>412</v>
@@ -58732,7 +58814,7 @@
     </row>
     <row r="552" spans="1:6" ht="75.75" customHeight="1">
       <c r="A552" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B552" s="6" t="s">
         <v>1782</v>
@@ -58750,7 +58832,7 @@
     </row>
     <row r="553" spans="1:6" ht="75.75" customHeight="1">
       <c r="A553" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B553" s="6" t="s">
         <v>1527</v>
@@ -58759,7 +58841,7 @@
         <v>1528</v>
       </c>
       <c r="D553" s="8" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
       <c r="E553" s="20" t="s">
         <v>424</v>
@@ -58768,7 +58850,7 @@
     </row>
     <row r="554" spans="1:6" ht="75.75" customHeight="1">
       <c r="A554" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B554" s="6" t="s">
         <v>1404</v>
@@ -58786,7 +58868,7 @@
     </row>
     <row r="555" spans="1:6" ht="75.75" customHeight="1">
       <c r="A555" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B555" s="6" t="s">
         <v>1373</v>
@@ -58804,7 +58886,7 @@
     </row>
     <row r="556" spans="1:6" ht="75.75" customHeight="1">
       <c r="A556" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B556" s="7" t="s">
         <v>233</v>
@@ -58822,7 +58904,7 @@
     </row>
     <row r="557" spans="1:6" ht="75.75" customHeight="1">
       <c r="A557" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B557" s="6" t="s">
         <v>968</v>
@@ -58840,7 +58922,7 @@
     </row>
     <row r="558" spans="1:6" ht="75.75" customHeight="1">
       <c r="A558" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B558" s="6" t="s">
         <v>1318</v>
@@ -58858,7 +58940,7 @@
     </row>
     <row r="559" spans="1:6" ht="75.75" customHeight="1">
       <c r="A559" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B559" s="7" t="s">
         <v>38</v>
@@ -58867,7 +58949,7 @@
         <v>39</v>
       </c>
       <c r="D559" s="8" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="E559" s="20" t="s">
         <v>8</v>
@@ -58876,7 +58958,7 @@
     </row>
     <row r="560" spans="1:6" ht="75.75" customHeight="1">
       <c r="A560" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B560" s="6" t="s">
         <v>1532</v>
@@ -58885,7 +58967,7 @@
         <v>1533</v>
       </c>
       <c r="D560" s="8" t="s">
-        <v>2136</v>
+        <v>2131</v>
       </c>
       <c r="E560" s="21" t="s">
         <v>1731</v>
@@ -58894,7 +58976,7 @@
     </row>
     <row r="561" spans="1:6" ht="75.75" customHeight="1">
       <c r="A561" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B561" s="6" t="s">
         <v>656</v>
@@ -58903,7 +58985,7 @@
         <v>657</v>
       </c>
       <c r="D561" s="8" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="E561" s="3" t="s">
         <v>427</v>
@@ -58912,7 +58994,7 @@
     </row>
     <row r="562" spans="1:6" ht="75.75" customHeight="1">
       <c r="A562" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B562" s="7" t="s">
         <v>18</v>
@@ -58921,7 +59003,7 @@
         <v>19</v>
       </c>
       <c r="D562" s="8" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="E562" s="20" t="s">
         <v>16</v>
@@ -58930,7 +59012,7 @@
     </row>
     <row r="563" spans="1:6" ht="75.75" customHeight="1">
       <c r="A563" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B563" s="6" t="s">
         <v>1268</v>
@@ -58939,7 +59021,7 @@
         <v>1269</v>
       </c>
       <c r="D563" s="8" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="E563" s="3" t="s">
         <v>240</v>
@@ -58948,7 +59030,7 @@
     </row>
     <row r="564" spans="1:6" ht="75.75" customHeight="1">
       <c r="A564" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B564" s="9" t="s">
         <v>49</v>
@@ -58966,7 +59048,7 @@
     </row>
     <row r="565" spans="1:6" ht="75.75" customHeight="1">
       <c r="A565" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B565" s="7" t="s">
         <v>1480</v>
@@ -58975,7 +59057,7 @@
         <v>1481</v>
       </c>
       <c r="D565" s="8" t="s">
-        <v>2181</v>
+        <v>2176</v>
       </c>
       <c r="E565" s="20" t="s">
         <v>16</v>
@@ -58984,7 +59066,7 @@
     </row>
     <row r="566" spans="1:6" ht="75.75" customHeight="1">
       <c r="A566" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B566" s="7" t="s">
         <v>1482</v>
@@ -59002,7 +59084,7 @@
     </row>
     <row r="567" spans="1:6" ht="75.75" customHeight="1">
       <c r="A567" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B567" s="6" t="s">
         <v>445</v>
@@ -59011,7 +59093,7 @@
         <v>446</v>
       </c>
       <c r="D567" s="8" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="E567" s="3" t="s">
         <v>412</v>
@@ -59020,7 +59102,7 @@
     </row>
     <row r="568" spans="1:6" ht="75.75" customHeight="1">
       <c r="A568" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B568" s="6" t="s">
         <v>1431</v>
@@ -59029,7 +59111,7 @@
         <v>1878</v>
       </c>
       <c r="D568" s="8" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="E568" s="20" t="s">
         <v>12</v>
@@ -59038,7 +59120,7 @@
     </row>
     <row r="569" spans="1:6" ht="75.75" customHeight="1">
       <c r="A569" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B569" s="6" t="s">
         <v>730</v>
@@ -59047,7 +59129,7 @@
         <v>731</v>
       </c>
       <c r="D569" s="8" t="s">
-        <v>2067</v>
+        <v>2062</v>
       </c>
       <c r="E569" s="21" t="s">
         <v>1731</v>
@@ -59056,7 +59138,7 @@
     </row>
     <row r="570" spans="1:6" ht="75.75" customHeight="1">
       <c r="A570" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B570" s="7" t="s">
         <v>1450</v>
@@ -59074,7 +59156,7 @@
     </row>
     <row r="571" spans="1:6" ht="75.75" customHeight="1">
       <c r="A571" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B571" s="6" t="s">
         <v>1133</v>
@@ -59092,7 +59174,7 @@
     </row>
     <row r="572" spans="1:6" ht="75.75" customHeight="1">
       <c r="A572" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B572" s="6" t="s">
         <v>1098</v>
@@ -59101,7 +59183,7 @@
         <v>1099</v>
       </c>
       <c r="D572" s="8" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E572" s="3" t="s">
         <v>409</v>
@@ -59110,7 +59192,7 @@
     </row>
     <row r="573" spans="1:6" ht="75.75" customHeight="1">
       <c r="A573" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B573" s="6" t="s">
         <v>735</v>
@@ -59119,7 +59201,7 @@
         <v>736</v>
       </c>
       <c r="D573" s="8" t="s">
-        <v>2192</v>
+        <v>2187</v>
       </c>
       <c r="E573" s="21" t="s">
         <v>1731</v>
@@ -59128,7 +59210,7 @@
     </row>
     <row r="574" spans="1:6" ht="75.75" customHeight="1">
       <c r="A574" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B574" s="6" t="s">
         <v>1244</v>
@@ -59146,7 +59228,7 @@
     </row>
     <row r="575" spans="1:6" ht="75.75" customHeight="1">
       <c r="A575" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B575" s="6" t="s">
         <v>1520</v>
@@ -59155,7 +59237,7 @@
         <v>1521</v>
       </c>
       <c r="D575" s="8" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="E575" s="3" t="s">
         <v>1522</v>
@@ -59164,7 +59246,7 @@
     </row>
     <row r="576" spans="1:6" ht="75.75" customHeight="1">
       <c r="A576" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B576" s="6" t="s">
         <v>706</v>
@@ -59182,7 +59264,7 @@
     </row>
     <row r="577" spans="1:6" ht="75.75" customHeight="1">
       <c r="A577" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B577" s="6" t="s">
         <v>1270</v>
@@ -59191,7 +59273,7 @@
         <v>1271</v>
       </c>
       <c r="D577" s="8" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="E577" s="3" t="s">
         <v>12</v>
@@ -59200,7 +59282,7 @@
     </row>
     <row r="578" spans="1:6" ht="75.75" customHeight="1">
       <c r="A578" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B578" s="6" t="s">
         <v>743</v>
@@ -59209,7 +59291,7 @@
         <v>744</v>
       </c>
       <c r="D578" s="8" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="E578" s="3" t="s">
         <v>427</v>
@@ -59218,7 +59300,7 @@
     </row>
     <row r="579" spans="1:6" ht="75.75" customHeight="1">
       <c r="A579" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B579" s="6" t="s">
         <v>768</v>
@@ -59236,7 +59318,7 @@
     </row>
     <row r="580" spans="1:6" ht="75.75" customHeight="1">
       <c r="A580" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B580" s="6" t="s">
         <v>1161</v>
@@ -59254,7 +59336,7 @@
     </row>
     <row r="581" spans="1:6" ht="75.75" customHeight="1">
       <c r="A581" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B581" s="6" t="s">
         <v>1551</v>
@@ -59272,7 +59354,7 @@
     </row>
     <row r="582" spans="1:6" ht="75.75" customHeight="1">
       <c r="A582" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B582" s="6" t="s">
         <v>891</v>
@@ -59290,7 +59372,7 @@
     </row>
     <row r="583" spans="1:6" ht="75.75" customHeight="1">
       <c r="A583" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B583" s="6" t="s">
         <v>624</v>
@@ -59308,7 +59390,7 @@
     </row>
     <row r="584" spans="1:6" ht="75.75" customHeight="1">
       <c r="A584" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B584" s="6" t="s">
         <v>1068</v>
@@ -59326,7 +59408,7 @@
     </row>
     <row r="585" spans="1:6" ht="75.75" customHeight="1">
       <c r="A585" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B585" s="6" t="s">
         <v>1025</v>
@@ -59344,7 +59426,7 @@
     </row>
     <row r="586" spans="1:6" ht="75.75" customHeight="1">
       <c r="A586" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B586" s="6" t="s">
         <v>1296</v>
@@ -59362,7 +59444,7 @@
     </row>
     <row r="587" spans="1:6" ht="75.75" customHeight="1">
       <c r="A587" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B587" s="6" t="s">
         <v>1567</v>
@@ -59371,7 +59453,7 @@
         <v>1568</v>
       </c>
       <c r="D587" s="8" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>6</v>
@@ -59380,7 +59462,7 @@
     </row>
     <row r="588" spans="1:6" ht="75.75" customHeight="1">
       <c r="A588" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B588" s="6" t="s">
         <v>993</v>
@@ -59398,7 +59480,7 @@
     </row>
     <row r="589" spans="1:6" ht="75.75" customHeight="1">
       <c r="A589" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B589" s="6" t="s">
         <v>864</v>
@@ -59416,7 +59498,7 @@
     </row>
     <row r="590" spans="1:6" ht="75.75" customHeight="1">
       <c r="A590" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B590" s="6" t="s">
         <v>1494</v>
@@ -59425,7 +59507,7 @@
         <v>1495</v>
       </c>
       <c r="D590" s="8" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>6</v>
@@ -59434,7 +59516,7 @@
     </row>
     <row r="591" spans="1:6" ht="75.75" customHeight="1">
       <c r="A591" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B591" s="6" t="s">
         <v>1539</v>
@@ -59443,7 +59525,7 @@
         <v>1540</v>
       </c>
       <c r="D591" s="8" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="E591" s="3" t="s">
         <v>6</v>
@@ -59452,7 +59534,7 @@
     </row>
     <row r="592" spans="1:6" ht="75.75" customHeight="1">
       <c r="A592" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B592" s="6" t="s">
         <v>1393</v>
@@ -59470,7 +59552,7 @@
     </row>
     <row r="593" spans="1:6" ht="75.75" customHeight="1">
       <c r="A593" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B593" s="6" t="s">
         <v>814</v>
@@ -59488,7 +59570,7 @@
     </row>
     <row r="594" spans="1:6" ht="75.75" customHeight="1">
       <c r="A594" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B594" s="6" t="s">
         <v>811</v>
@@ -59506,7 +59588,7 @@
     </row>
     <row r="595" spans="1:6" ht="75.75" customHeight="1">
       <c r="A595" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B595" s="6" t="s">
         <v>1353</v>
@@ -59524,7 +59606,7 @@
     </row>
     <row r="596" spans="1:6" ht="75.75" customHeight="1">
       <c r="A596" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>1212</v>
@@ -59542,7 +59624,7 @@
     </row>
     <row r="597" spans="1:6" ht="75.75" customHeight="1">
       <c r="A597" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B597" s="6" t="s">
         <v>1446</v>
@@ -59560,7 +59642,7 @@
     </row>
     <row r="598" spans="1:6" ht="75.75" customHeight="1">
       <c r="A598" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>819</v>
@@ -59578,7 +59660,7 @@
     </row>
     <row r="599" spans="1:6" ht="75.75" customHeight="1">
       <c r="A599" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B599" s="6" t="s">
         <v>705</v>
@@ -59587,7 +59669,7 @@
         <v>1675</v>
       </c>
       <c r="D599" s="8" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="E599" s="3" t="s">
         <v>421</v>
@@ -59596,7 +59678,7 @@
     </row>
     <row r="600" spans="1:6" ht="75.75" customHeight="1">
       <c r="A600" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B600" s="6" t="s">
         <v>1441</v>
@@ -59614,7 +59696,7 @@
     </row>
     <row r="601" spans="1:6" ht="75.75" customHeight="1">
       <c r="A601" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B601" s="6" t="s">
         <v>919</v>
@@ -59632,7 +59714,7 @@
     </row>
     <row r="602" spans="1:6" ht="75.75" customHeight="1">
       <c r="A602" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B602" s="6" t="s">
         <v>1336</v>
@@ -59641,7 +59723,7 @@
         <v>1337</v>
       </c>
       <c r="D602" s="8" t="s">
-        <v>2041</v>
+        <v>2036</v>
       </c>
       <c r="E602" s="20" t="s">
         <v>104</v>
@@ -59650,7 +59732,7 @@
     </row>
     <row r="603" spans="1:6" ht="75.75" customHeight="1">
       <c r="A603" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B603" s="6" t="s">
         <v>1205</v>
@@ -59668,7 +59750,7 @@
     </row>
     <row r="604" spans="1:6" ht="75.75" customHeight="1">
       <c r="A604" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B604" s="6" t="s">
         <v>727</v>
@@ -59686,7 +59768,7 @@
     </row>
     <row r="605" spans="1:6" ht="75.75" customHeight="1">
       <c r="A605" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B605" s="6" t="s">
         <v>1741</v>
@@ -59704,7 +59786,7 @@
     </row>
     <row r="606" spans="1:6" ht="75.75" customHeight="1">
       <c r="A606" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B606" s="6" t="s">
         <v>1387</v>
@@ -59722,7 +59804,7 @@
     </row>
     <row r="607" spans="1:6" ht="75.75" customHeight="1">
       <c r="A607" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B607" s="6" t="s">
         <v>698</v>
@@ -59731,7 +59813,7 @@
         <v>699</v>
       </c>
       <c r="D607" s="8" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="E607" s="3" t="s">
         <v>12</v>
@@ -59740,16 +59822,16 @@
     </row>
     <row r="608" spans="1:6" ht="75.75" customHeight="1">
       <c r="A608" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B608" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C608" s="11" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E608" s="20" t="s">
         <v>8</v>
@@ -59758,7 +59840,7 @@
     </row>
     <row r="609" spans="1:6" ht="75.75" customHeight="1">
       <c r="A609" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B609" s="6" t="s">
         <v>1191</v>
@@ -59776,7 +59858,7 @@
     </row>
     <row r="610" spans="1:6" ht="75.75" customHeight="1">
       <c r="A610" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B610" s="6" t="s">
         <v>1444</v>
@@ -59785,7 +59867,7 @@
         <v>1445</v>
       </c>
       <c r="D610" s="8" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="E610" s="20" t="s">
         <v>8</v>
@@ -59794,7 +59876,7 @@
     </row>
     <row r="611" spans="1:6" ht="75.75" customHeight="1">
       <c r="A611" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B611" s="6" t="s">
         <v>1208</v>
@@ -59803,7 +59885,7 @@
         <v>1209</v>
       </c>
       <c r="D611" s="8" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="E611" s="3" t="s">
         <v>72</v>
@@ -59812,7 +59894,7 @@
     </row>
     <row r="612" spans="1:6" ht="75.75" customHeight="1">
       <c r="A612" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B612" s="6" t="s">
         <v>1021</v>
@@ -59830,7 +59912,7 @@
     </row>
     <row r="613" spans="1:6" ht="75.75" customHeight="1">
       <c r="A613" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B613" s="8" t="s">
         <v>383</v>
@@ -59839,7 +59921,7 @@
         <v>384</v>
       </c>
       <c r="D613" s="8" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="E613" s="20" t="s">
         <v>424</v>
@@ -59848,7 +59930,7 @@
     </row>
     <row r="614" spans="1:6" ht="75.75" customHeight="1">
       <c r="A614" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B614" s="6" t="s">
         <v>447</v>
@@ -59866,7 +59948,7 @@
     </row>
     <row r="615" spans="1:6" ht="75.75" customHeight="1">
       <c r="A615" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B615" s="6" t="s">
         <v>963</v>
@@ -59884,7 +59966,7 @@
     </row>
     <row r="616" spans="1:6" ht="75.75" customHeight="1">
       <c r="A616" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B616" s="6" t="s">
         <v>883</v>
@@ -59902,7 +59984,7 @@
     </row>
     <row r="617" spans="1:6" ht="75.75" customHeight="1">
       <c r="A617" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B617" s="6" t="s">
         <v>552</v>
@@ -59920,7 +60002,7 @@
     </row>
     <row r="618" spans="1:6" ht="75.75" customHeight="1">
       <c r="A618" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B618" s="6" t="s">
         <v>977</v>
@@ -59938,7 +60020,7 @@
     </row>
     <row r="619" spans="1:6" ht="75.75" customHeight="1">
       <c r="A619" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B619" s="6" t="s">
         <v>1226</v>
@@ -59956,7 +60038,7 @@
     </row>
     <row r="620" spans="1:6" ht="75.75" customHeight="1">
       <c r="A620" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B620" s="6" t="s">
         <v>1036</v>
@@ -59974,7 +60056,7 @@
     </row>
     <row r="621" spans="1:6" ht="75.75" customHeight="1">
       <c r="A621" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B621" s="6" t="s">
         <v>954</v>
@@ -59983,7 +60065,7 @@
         <v>955</v>
       </c>
       <c r="D621" s="8" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>12</v>
@@ -59992,7 +60074,7 @@
     </row>
     <row r="622" spans="1:6" ht="75.75" customHeight="1">
       <c r="A622" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B622" s="6" t="s">
         <v>1362</v>
@@ -60010,7 +60092,7 @@
     </row>
     <row r="623" spans="1:6" ht="75.75" customHeight="1">
       <c r="A623" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B623" s="7" t="s">
         <v>7</v>
@@ -60028,7 +60110,7 @@
     </row>
     <row r="624" spans="1:6" ht="75.75" customHeight="1">
       <c r="A624" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B624" s="6" t="s">
         <v>1322</v>
@@ -60046,7 +60128,7 @@
     </row>
     <row r="625" spans="1:6" ht="75.75" customHeight="1">
       <c r="A625" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B625" s="6" t="s">
         <v>1747</v>
@@ -60064,7 +60146,7 @@
     </row>
     <row r="626" spans="1:6" ht="75.75" customHeight="1">
       <c r="A626" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B626" s="6" t="s">
         <v>1642</v>
@@ -60073,7 +60155,7 @@
         <v>1643</v>
       </c>
       <c r="D626" s="8" t="s">
-        <v>2190</v>
+        <v>2185</v>
       </c>
       <c r="E626" s="3" t="s">
         <v>409</v>
@@ -60082,7 +60164,7 @@
     </row>
     <row r="627" spans="1:6" ht="75.75" customHeight="1">
       <c r="A627" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B627" s="6" t="s">
         <v>855</v>
@@ -60091,7 +60173,7 @@
         <v>856</v>
       </c>
       <c r="D627" s="8" t="s">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="E627" s="3" t="s">
         <v>12</v>
@@ -60100,7 +60182,7 @@
     </row>
     <row r="628" spans="1:6" ht="75.75" customHeight="1">
       <c r="A628" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B628" s="6" t="s">
         <v>1018</v>
@@ -60118,7 +60200,7 @@
     </row>
     <row r="629" spans="1:6" ht="75.75" customHeight="1">
       <c r="A629" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B629" s="7" t="s">
         <v>30</v>
@@ -60127,7 +60209,7 @@
         <v>31</v>
       </c>
       <c r="D629" s="8" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="E629" s="20" t="s">
         <v>8</v>
@@ -60136,7 +60218,7 @@
     </row>
     <row r="630" spans="1:6" ht="75.75" customHeight="1">
       <c r="A630" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B630" s="6" t="s">
         <v>1330</v>
@@ -60145,7 +60227,7 @@
         <v>1331</v>
       </c>
       <c r="D630" s="8" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="E630" s="20" t="s">
         <v>8</v>
@@ -60154,7 +60236,7 @@
     </row>
     <row r="631" spans="1:6" ht="75.75" customHeight="1">
       <c r="A631" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B631" s="6" t="s">
         <v>1286</v>
@@ -60172,7 +60254,7 @@
     </row>
     <row r="632" spans="1:6" ht="75.75" customHeight="1">
       <c r="A632" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>1332</v>
@@ -60181,7 +60263,7 @@
         <v>1333</v>
       </c>
       <c r="D632" s="8" t="s">
-        <v>2051</v>
+        <v>2046</v>
       </c>
       <c r="E632" s="20" t="s">
         <v>12</v>
@@ -60190,7 +60272,7 @@
     </row>
     <row r="633" spans="1:6" ht="75.75" customHeight="1">
       <c r="A633" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B633" s="6" t="s">
         <v>1251</v>
@@ -60208,7 +60290,7 @@
     </row>
     <row r="634" spans="1:6" ht="75.75" customHeight="1">
       <c r="A634" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B634" s="6" t="s">
         <v>1725</v>
@@ -60226,7 +60308,7 @@
     </row>
     <row r="635" spans="1:6" ht="75.75" customHeight="1">
       <c r="A635" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B635" s="6" t="s">
         <v>709</v>
@@ -60244,7 +60326,7 @@
     </row>
     <row r="636" spans="1:6" ht="75.75" customHeight="1">
       <c r="A636" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>786</v>
@@ -60262,7 +60344,7 @@
     </row>
     <row r="637" spans="1:6" ht="75.75" customHeight="1">
       <c r="A637" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B637" s="7" t="s">
         <v>1476</v>
@@ -60280,7 +60362,7 @@
     </row>
     <row r="638" spans="1:6" ht="75.75" customHeight="1">
       <c r="A638" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B638" s="6" t="s">
         <v>912</v>
@@ -60298,7 +60380,7 @@
     </row>
     <row r="639" spans="1:6" ht="75.75" customHeight="1">
       <c r="A639" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B639" s="6" t="s">
         <v>849</v>
@@ -60316,7 +60398,7 @@
     </row>
     <row r="640" spans="1:6" ht="75.75" customHeight="1">
       <c r="A640" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B640" s="8" t="s">
         <v>385</v>
@@ -60325,7 +60407,7 @@
         <v>386</v>
       </c>
       <c r="D640" s="8" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="E640" s="21" t="s">
         <v>240</v>
@@ -60334,7 +60416,7 @@
     </row>
     <row r="641" spans="1:6" ht="75.75" customHeight="1">
       <c r="A641" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B641" s="6" t="s">
         <v>1690</v>
@@ -60343,7 +60425,7 @@
         <v>491</v>
       </c>
       <c r="D641" s="8" t="s">
-        <v>2210</v>
+        <v>2205</v>
       </c>
       <c r="E641" s="3" t="s">
         <v>492</v>
@@ -60352,7 +60434,7 @@
     </row>
     <row r="642" spans="1:6" ht="75.75" customHeight="1">
       <c r="A642" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B642" s="6" t="s">
         <v>1170</v>
@@ -60370,7 +60452,7 @@
     </row>
     <row r="643" spans="1:6" ht="75.75" customHeight="1">
       <c r="A643" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B643" s="6" t="s">
         <v>575</v>
@@ -60388,7 +60470,7 @@
     </row>
     <row r="644" spans="1:6" ht="75.75" customHeight="1">
       <c r="A644" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B644" s="6" t="s">
         <v>906</v>
@@ -60397,7 +60479,7 @@
         <v>907</v>
       </c>
       <c r="D644" s="8" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="E644" s="3" t="s">
         <v>6</v>
@@ -60406,7 +60488,7 @@
     </row>
     <row r="645" spans="1:6" ht="75.75" customHeight="1">
       <c r="A645" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B645" s="8" t="s">
         <v>387</v>
@@ -60424,7 +60506,7 @@
     </row>
     <row r="646" spans="1:6" ht="75.75" customHeight="1">
       <c r="A646" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B646" s="6" t="s">
         <v>1263</v>
@@ -60433,7 +60515,7 @@
         <v>1814</v>
       </c>
       <c r="D646" s="8" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="E646" s="3" t="s">
         <v>12</v>
@@ -60442,7 +60524,7 @@
     </row>
     <row r="647" spans="1:6" ht="75.75" customHeight="1">
       <c r="A647" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B647" s="6" t="s">
         <v>465</v>
@@ -60460,7 +60542,7 @@
     </row>
     <row r="648" spans="1:6" ht="75.75" customHeight="1">
       <c r="A648" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B648" s="8" t="s">
         <v>390</v>
@@ -60469,7 +60551,7 @@
         <v>391</v>
       </c>
       <c r="D648" s="8" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E648" s="21" t="s">
         <v>1731</v>
@@ -60478,7 +60560,7 @@
     </row>
     <row r="649" spans="1:6" ht="75.75" customHeight="1">
       <c r="A649" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B649" s="8" t="s">
         <v>392</v>
@@ -60496,7 +60578,7 @@
     </row>
     <row r="650" spans="1:6" ht="75.75" customHeight="1">
       <c r="A650" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B650" s="6" t="s">
         <v>1620</v>
@@ -60514,7 +60596,7 @@
     </row>
     <row r="651" spans="1:6" ht="75.75" customHeight="1">
       <c r="A651" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B651" s="6" t="s">
         <v>1167</v>
@@ -60532,7 +60614,7 @@
     </row>
     <row r="652" spans="1:6" ht="75.75" customHeight="1">
       <c r="A652" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B652" s="6" t="s">
         <v>1283</v>
@@ -60550,7 +60632,7 @@
     </row>
     <row r="653" spans="1:6" ht="75.75" customHeight="1">
       <c r="A653" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B653" s="8" t="s">
         <v>395</v>
@@ -60559,7 +60641,7 @@
         <v>1793</v>
       </c>
       <c r="D653" s="8" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="E653" s="21" t="s">
         <v>1731</v>
@@ -60568,16 +60650,16 @@
     </row>
     <row r="654" spans="1:6" ht="75.75" customHeight="1">
       <c r="A654" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="C654" s="11" t="s">
         <v>1231</v>
       </c>
       <c r="D654" s="8" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="E654" s="3" t="s">
         <v>444</v>
@@ -60586,7 +60668,7 @@
     </row>
     <row r="655" spans="1:6" ht="75.75" customHeight="1">
       <c r="A655" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B655" s="6" t="s">
         <v>572</v>
@@ -60604,7 +60686,7 @@
     </row>
     <row r="656" spans="1:6" ht="75.75" customHeight="1">
       <c r="A656" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B656" s="7" t="s">
         <v>40</v>
@@ -60622,7 +60704,7 @@
     </row>
     <row r="657" spans="1:6" ht="75.75" customHeight="1">
       <c r="A657" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B657" s="6" t="s">
         <v>1293</v>
@@ -60640,7 +60722,7 @@
     </row>
     <row r="658" spans="1:6" ht="75.75" customHeight="1">
       <c r="A658" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B658" s="6" t="s">
         <v>499</v>
@@ -60658,7 +60740,7 @@
     </row>
     <row r="659" spans="1:6" ht="75.75" customHeight="1">
       <c r="A659" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B659" s="6" t="s">
         <v>1005</v>
@@ -60676,7 +60758,7 @@
     </row>
     <row r="660" spans="1:6" ht="75.75" customHeight="1">
       <c r="A660" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B660" s="6" t="s">
         <v>922</v>
@@ -60694,7 +60776,7 @@
     </row>
     <row r="661" spans="1:6" ht="75.75" customHeight="1">
       <c r="A661" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B661" s="6" t="s">
         <v>1290</v>
@@ -60703,7 +60785,7 @@
         <v>1291</v>
       </c>
       <c r="D661" s="8" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="E661" s="3" t="s">
         <v>1292</v>
@@ -60712,7 +60794,7 @@
     </row>
     <row r="662" spans="1:6" ht="75.75" customHeight="1">
       <c r="A662" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B662" s="8" t="s">
         <v>396</v>
@@ -60730,7 +60812,7 @@
     </row>
     <row r="663" spans="1:6" ht="75.75" customHeight="1">
       <c r="A663" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B663" s="6" t="s">
         <v>1617</v>
@@ -60748,7 +60830,7 @@
     </row>
     <row r="664" spans="1:6" ht="75.75" customHeight="1">
       <c r="A664" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B664" s="6" t="s">
         <v>843</v>
@@ -60766,7 +60848,7 @@
     </row>
     <row r="665" spans="1:6" ht="75.75" customHeight="1">
       <c r="A665" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B665" s="6" t="s">
         <v>925</v>
@@ -60784,7 +60866,7 @@
     </row>
     <row r="666" spans="1:6" ht="75.75" customHeight="1">
       <c r="A666" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B666" s="6" t="s">
         <v>1196</v>
@@ -60802,7 +60884,7 @@
     </row>
     <row r="667" spans="1:6" ht="75.75" customHeight="1">
       <c r="A667" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B667" s="6" t="s">
         <v>1046</v>
@@ -60820,7 +60902,7 @@
     </row>
     <row r="668" spans="1:6" ht="75.75" customHeight="1">
       <c r="A668" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B668" s="6" t="s">
         <v>602</v>
@@ -60838,7 +60920,7 @@
     </row>
     <row r="669" spans="1:6" ht="75.75" customHeight="1">
       <c r="A669" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B669" s="6" t="s">
         <v>1327</v>
@@ -60856,7 +60938,7 @@
     </row>
     <row r="670" spans="1:6" ht="75.75" customHeight="1">
       <c r="A670" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B670" s="6" t="s">
         <v>1417</v>
@@ -60874,7 +60956,7 @@
     </row>
     <row r="671" spans="1:6" ht="75.75" customHeight="1">
       <c r="A671" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B671" s="8" t="s">
         <v>1748</v>
@@ -60892,7 +60974,7 @@
     </row>
     <row r="672" spans="1:6" ht="75.75" customHeight="1">
       <c r="A672" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B672" s="8" t="s">
         <v>398</v>
@@ -60910,7 +60992,7 @@
     </row>
     <row r="673" spans="1:6" ht="75.75" customHeight="1">
       <c r="A673" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B673" s="6" t="s">
         <v>755</v>
@@ -60928,7 +61010,7 @@
     </row>
     <row r="674" spans="1:6" ht="75.75" customHeight="1">
       <c r="A674" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B674" s="6" t="s">
         <v>1176</v>
@@ -60946,7 +61028,7 @@
     </row>
     <row r="675" spans="1:6" ht="75.75" customHeight="1">
       <c r="A675" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B675" s="6" t="s">
         <v>1238</v>
@@ -60964,7 +61046,7 @@
     </row>
     <row r="676" spans="1:6" ht="75.75" customHeight="1">
       <c r="A676" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B676" s="6" t="s">
         <v>1320</v>
@@ -60982,33 +61064,33 @@
     </row>
     <row r="677" spans="1:6" ht="75.75" customHeight="1">
       <c r="A677" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B677" s="31" t="s">
         <v>1830</v>
       </c>
       <c r="C677" s="31" t="s">
-        <v>1894</v>
+        <v>2224</v>
       </c>
       <c r="D677" s="32" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="E677" s="31" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="75.75" customHeight="1">
       <c r="A678" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B678" s="31" t="s">
         <v>1829</v>
       </c>
       <c r="C678" s="31" t="s">
-        <v>1893</v>
+        <v>2225</v>
       </c>
       <c r="D678" s="32" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="E678" s="16" t="s">
         <v>16</v>
@@ -61017,7 +61099,7 @@
     </row>
     <row r="679" spans="1:6" ht="75.75" customHeight="1">
       <c r="A679" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B679" s="31" t="s">
         <v>1826</v>
@@ -61035,7 +61117,7 @@
     </row>
     <row r="680" spans="1:6" s="23" customFormat="1" ht="85.5" customHeight="1">
       <c r="A680" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B680" s="31" t="s">
         <v>1832</v>
@@ -61044,7 +61126,7 @@
         <v>1833</v>
       </c>
       <c r="D680" s="32" t="s">
-        <v>2076</v>
+        <v>2071</v>
       </c>
       <c r="E680" s="31" t="s">
         <v>12</v>
@@ -61052,16 +61134,16 @@
     </row>
     <row r="681" spans="1:6" ht="75.75" customHeight="1">
       <c r="A681" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B681" s="31" t="s">
         <v>1841</v>
       </c>
       <c r="C681" s="31" t="s">
-        <v>2037</v>
+        <v>2226</v>
       </c>
       <c r="D681" s="32" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="E681" s="3" t="s">
         <v>427</v>
@@ -61069,16 +61151,16 @@
     </row>
     <row r="682" spans="1:6" ht="75.75" customHeight="1">
       <c r="A682" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B682" s="31" t="s">
         <v>1870</v>
       </c>
       <c r="C682" s="31" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="D682" s="32" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="E682" s="3" t="s">
         <v>412</v>
@@ -61086,7 +61168,7 @@
     </row>
     <row r="683" spans="1:6" ht="75.75" customHeight="1">
       <c r="A683" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B683" s="31" t="s">
         <v>1857</v>
@@ -61095,7 +61177,7 @@
         <v>1869</v>
       </c>
       <c r="D683" s="32" t="s">
-        <v>2180</v>
+        <v>2175</v>
       </c>
       <c r="E683" s="3" t="s">
         <v>300</v>
@@ -61103,16 +61185,16 @@
     </row>
     <row r="684" spans="1:6" ht="75.75" customHeight="1">
       <c r="A684" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B684" s="31" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="C684" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="D684" s="32" t="s">
-        <v>2214</v>
+        <v>2209</v>
       </c>
       <c r="E684" s="3" t="s">
         <v>300</v>
@@ -61120,16 +61202,16 @@
     </row>
     <row r="685" spans="1:6" ht="75.75" customHeight="1">
       <c r="A685" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B685" s="31" t="s">
         <v>1858</v>
       </c>
       <c r="C685" s="40" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="D685" s="32" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="E685" s="3" t="s">
         <v>412</v>
@@ -61137,7 +61219,7 @@
     </row>
     <row r="686" spans="1:6" ht="75.75" customHeight="1">
       <c r="A686" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B686" s="31" t="s">
         <v>1872</v>
@@ -61146,7 +61228,7 @@
         <v>1873</v>
       </c>
       <c r="D686" s="32" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="E686" s="3" t="s">
         <v>412</v>
@@ -61154,16 +61236,16 @@
     </row>
     <row r="687" spans="1:6" ht="75.75" customHeight="1">
       <c r="A687" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B687" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="C687" s="31" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="D687" s="32" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="E687" s="3" t="s">
         <v>412</v>
@@ -61171,24 +61253,24 @@
     </row>
     <row r="688" spans="1:6" ht="75.75" customHeight="1">
       <c r="A688" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B688" s="31" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C688" s="31" t="s">
         <v>1880</v>
       </c>
       <c r="D688" s="32" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="E688" s="31" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="689" spans="1:5" ht="75.75" customHeight="1">
       <c r="A689" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B689" s="31" t="s">
         <v>1859</v>
@@ -61197,7 +61279,7 @@
         <v>1871</v>
       </c>
       <c r="D689" s="32" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="E689" s="3" t="s">
         <v>412</v>
@@ -61205,33 +61287,33 @@
     </row>
     <row r="690" spans="1:5" ht="75.75" customHeight="1">
       <c r="A690" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B690" s="31" t="s">
         <v>1860</v>
       </c>
       <c r="C690" s="31" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D690" s="32" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="E690" s="31" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="691" spans="1:5" ht="75.75" customHeight="1">
       <c r="A691" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B691" s="31" t="s">
         <v>1861</v>
       </c>
       <c r="C691" s="31" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="D691" s="32" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="E691" s="3" t="s">
         <v>412</v>
@@ -61239,7 +61321,7 @@
     </row>
     <row r="692" spans="1:5" ht="75.75" customHeight="1">
       <c r="A692" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B692" s="31" t="s">
         <v>1862</v>
@@ -61248,7 +61330,7 @@
         <v>1863</v>
       </c>
       <c r="D692" s="32" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="E692" s="3" t="s">
         <v>412</v>
@@ -61256,254 +61338,254 @@
     </row>
     <row r="693" spans="1:5" ht="75.75" customHeight="1">
       <c r="A693" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B693" s="31" t="s">
         <v>1864</v>
       </c>
       <c r="C693" s="31" t="s">
-        <v>1886</v>
+        <v>2227</v>
       </c>
       <c r="D693" s="32" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="E693" s="31" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="694" spans="1:5" ht="75.75" customHeight="1">
       <c r="A694" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B694" s="31" t="s">
         <v>1865</v>
       </c>
       <c r="C694" s="31" t="s">
-        <v>1881</v>
+        <v>2228</v>
       </c>
       <c r="D694" s="32" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="E694" s="31" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="695" spans="1:5" ht="75.75" customHeight="1">
       <c r="A695" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B695" s="31" t="s">
         <v>1879</v>
       </c>
       <c r="C695" s="31" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D695" s="32" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="E695" s="31" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="696" spans="1:5" ht="75.75" customHeight="1">
       <c r="A696" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B696" s="31" t="s">
         <v>1866</v>
       </c>
       <c r="C696" s="31" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D696" s="32" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="E696" s="31" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="697" spans="1:5" ht="75.75" customHeight="1">
       <c r="A697" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B697" s="31" t="s">
         <v>1867</v>
       </c>
       <c r="C697" s="31" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="D697" s="32" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="E697" s="31" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="698" spans="1:5" ht="75.75" customHeight="1">
       <c r="A698" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B698" s="31" t="s">
         <v>1874</v>
       </c>
       <c r="C698" s="31" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="D698" s="32" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="E698" s="31" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="699" spans="1:5" ht="75.75" customHeight="1">
       <c r="A699" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B699" s="31" t="s">
         <v>1877</v>
       </c>
       <c r="C699" s="31" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D699" s="32" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="E699" s="31" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="700" spans="1:5" ht="75.75" customHeight="1">
       <c r="A700" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B700" s="31" t="s">
         <v>1876</v>
       </c>
       <c r="C700" s="31" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="D700" s="32" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="E700" s="31" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="701" spans="1:5" ht="75.75" customHeight="1">
       <c r="A701" s="22" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="B701" s="31" t="s">
         <v>1868</v>
       </c>
       <c r="C701" s="31" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D701" s="32" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="E701" s="31" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="702" spans="1:5" ht="38.25" customHeight="1">
       <c r="A702" s="22" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B702" s="31" t="s">
         <v>2011</v>
       </c>
-      <c r="B702" s="31" t="s">
-        <v>2015</v>
-      </c>
       <c r="C702" s="45" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D702" s="47" t="s">
         <v>2012</v>
       </c>
-      <c r="D702" s="47" t="s">
-        <v>2016</v>
-      </c>
       <c r="E702" s="23" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="703" spans="1:5" ht="38.25" customHeight="1">
       <c r="A703" s="22" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B703" s="31" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C703" s="45" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D703" s="47" t="s">
+        <v>2045</v>
+      </c>
+      <c r="E703" s="23" t="s">
         <v>2014</v>
-      </c>
-      <c r="D703" s="47" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E703" s="23" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="704" spans="1:5" ht="38.25" customHeight="1">
       <c r="A704" s="22" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B704" s="31" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C704" s="48" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D704" s="46" t="s">
-        <v>2118</v>
+        <v>2113</v>
       </c>
       <c r="E704" s="23" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="705" spans="1:5" ht="38.25" customHeight="1">
       <c r="A705" s="22" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B705" s="31" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="C705" s="45" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="D705" s="46" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="E705" s="23" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="706" spans="1:5" ht="38.25" customHeight="1">
       <c r="A706" s="22" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B706" s="31" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="C706" s="45" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="D706" s="46" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="E706" s="23" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="707" spans="1:5" ht="38.25" customHeight="1">
       <c r="A707" s="22" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B707" s="49" t="s">
-        <v>2047</v>
+        <v>2042</v>
       </c>
       <c r="C707" s="50" t="s">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="D707" s="46" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="E707" s="23" t="s">
         <v>8</v>
@@ -61511,16 +61593,16 @@
     </row>
     <row r="708" spans="1:5" ht="38.25" customHeight="1">
       <c r="A708" s="22" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B708" s="46" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="C708" s="46" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="D708" s="46" t="s">
-        <v>2208</v>
+        <v>2203</v>
       </c>
       <c r="E708" s="23" t="s">
         <v>8</v>
@@ -61528,16 +61610,16 @@
     </row>
     <row r="709" spans="1:5" ht="38.25" customHeight="1">
       <c r="A709" s="22" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B709" s="46" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="C709" s="46" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="D709" s="47" t="s">
-        <v>2094</v>
+        <v>2089</v>
       </c>
       <c r="E709" s="23" t="s">
         <v>8</v>
@@ -61545,16 +61627,16 @@
     </row>
     <row r="710" spans="1:5" ht="38.25" customHeight="1">
       <c r="A710" s="22" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B710" s="49" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="C710" s="45" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="D710" s="46" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="E710" s="23" t="s">
         <v>8</v>
@@ -61562,16 +61644,16 @@
     </row>
     <row r="711" spans="1:5" ht="38.25" customHeight="1">
       <c r="A711" s="22" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B711" s="49" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="C711" s="50" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="D711" s="46" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="E711" s="23" t="s">
         <v>8</v>
@@ -61579,16 +61661,16 @@
     </row>
     <row r="712" spans="1:5" ht="38.25" customHeight="1">
       <c r="A712" s="22" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
       <c r="B712" s="31" t="s">
-        <v>2216</v>
+        <v>2211</v>
       </c>
       <c r="C712" s="45" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="D712" s="46" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
     </row>
   </sheetData>
@@ -61597,33 +61679,33 @@
     <sortCondition sortBy="cellColor" ref="A2:A708" dxfId="1"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C571" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D575" sqref="D575"/>
+    <customSheetView guid="{80BF0089-CE58-491A-BA58-846BC418FA23}" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C429" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D441" sqref="D441"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B1:F707"/>
+      <autoFilter ref="B1:F676"/>
+    </customSheetView>
+    <customSheetView guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C142" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D142" sqref="D142"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B1:F676"/>
     </customSheetView>
     <customSheetView guid="{4FD0F5BB-18CA-4D4E-94E1-C85E09E751CE}" showAutoFilter="1">
       <pane xSplit="2" ySplit="1" topLeftCell="C469" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="D470" sqref="D470"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
       <autoFilter ref="B1:F701"/>
     </customSheetView>
-    <customSheetView guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C142" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D142" sqref="D142"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="B1:F676"/>
-    </customSheetView>
-    <customSheetView guid="{80BF0089-CE58-491A-BA58-846BC418FA23}" showAutoFilter="1">
-      <pane xSplit="2" ySplit="1" topLeftCell="C429" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D441" sqref="D441"/>
+    <customSheetView guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}" showAutoFilter="1">
+      <pane xSplit="2" ySplit="1" topLeftCell="C571" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D575" sqref="D575"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B1:F676"/>
+      <autoFilter ref="B1:F707"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -61639,8 +61721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -61653,7 +61735,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -61673,16 +61755,16 @@
     </row>
     <row r="2" spans="1:6" s="19" customFormat="1" ht="228.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>807</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>12</v>
@@ -61690,16 +61772,16 @@
     </row>
     <row r="3" spans="1:6" s="19" customFormat="1" ht="61.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>101</v>
@@ -61707,7 +61789,7 @@
     </row>
     <row r="4" spans="1:6" s="19" customFormat="1" ht="123.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1210</v>
@@ -61716,7 +61798,7 @@
         <v>1211</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -61724,7 +61806,7 @@
     </row>
     <row r="5" spans="1:6" s="19" customFormat="1" ht="61.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>1491</v>
@@ -61741,16 +61823,16 @@
     </row>
     <row r="6" spans="1:6" s="19" customFormat="1" ht="141.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>578</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>427</v>
@@ -61758,16 +61840,16 @@
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" ht="188.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>285</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>1731</v>
@@ -61775,7 +61857,7 @@
     </row>
     <row r="8" spans="1:6" s="19" customFormat="1" ht="82.5">
       <c r="A8" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>371</v>
@@ -61784,7 +61866,7 @@
         <v>372</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>2223</v>
+        <v>2218</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>1731</v>
@@ -61792,7 +61874,7 @@
     </row>
     <row r="9" spans="1:6" s="19" customFormat="1" ht="49.5">
       <c r="A9" s="1" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>619</v>
@@ -61801,7 +61883,7 @@
         <v>620</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>427</v>
@@ -61809,33 +61891,33 @@
     </row>
     <row r="10" spans="1:6" ht="46.5" customHeight="1">
       <c r="A10" s="37" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>1917</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>1920</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>1921</v>
-      </c>
       <c r="E10" s="38" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="41" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>1727</v>
@@ -61843,20 +61925,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}" topLeftCell="A8">
-      <selection activeCell="D21" sqref="D21"/>
+    <customSheetView guid="{80BF0089-CE58-491A-BA58-846BC418FA23}">
+      <selection activeCell="D2" sqref="D2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}" topLeftCell="A7">
+      <selection activeCell="D7" sqref="D7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{4FD0F5BB-18CA-4D4E-94E1-C85E09E751CE}" topLeftCell="A7">
       <selection activeCell="D15" sqref="D15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}" topLeftCell="A7">
-      <selection activeCell="D7" sqref="D7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{80BF0089-CE58-491A-BA58-846BC418FA23}">
-      <selection activeCell="D2" sqref="D2"/>
+    <customSheetView guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}" topLeftCell="A8">
+      <selection activeCell="D21" sqref="D21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -61883,7 +61965,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -61903,7 +61985,7 @@
     </row>
     <row r="2" spans="1:6" s="19" customFormat="1" ht="49.5">
       <c r="A2" s="1" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>783</v>
@@ -61920,7 +62002,7 @@
     </row>
     <row r="3" spans="1:6" s="19" customFormat="1" ht="49.5">
       <c r="A3" s="1" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1254</v>
@@ -61937,7 +62019,7 @@
     </row>
     <row r="4" spans="1:6" s="19" customFormat="1" ht="66">
       <c r="A4" s="1" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>737</v>
@@ -61946,7 +62028,7 @@
         <v>1758</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>427</v>
@@ -61954,7 +62036,7 @@
     </row>
     <row r="5" spans="1:6" s="19" customFormat="1" ht="66">
       <c r="A5" s="1" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>947</v>
@@ -61963,7 +62045,7 @@
         <v>948</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>12</v>
@@ -61971,7 +62053,7 @@
     </row>
     <row r="6" spans="1:6" s="19" customFormat="1" ht="181.5">
       <c r="A6" s="1" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>1010</v>
@@ -61980,7 +62062,7 @@
         <v>1685</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>2194</v>
+        <v>2189</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -61988,7 +62070,7 @@
     </row>
     <row r="7" spans="1:6" s="19" customFormat="1" ht="49.5">
       <c r="A7" s="1" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>1223</v>
@@ -62005,22 +62087,22 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}">
+    <customSheetView guid="{80BF0089-CE58-491A-BA58-846BC418FA23}">
       <selection activeCell="C6" sqref="C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4FD0F5BB-18CA-4D4E-94E1-C85E09E751CE}" topLeftCell="A7">
+    <customSheetView guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}">
       <selection activeCell="C6" sqref="C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{7F731F17-0640-49A5-A2F7-5D91DC7B2D43}">
+    <customSheetView guid="{4FD0F5BB-18CA-4D4E-94E1-C85E09E751CE}" topLeftCell="A7">
       <selection activeCell="C6" sqref="C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{80BF0089-CE58-491A-BA58-846BC418FA23}">
+    <customSheetView guid="{1364EDCA-C5DA-4124-B1BE-78062102D444}">
       <selection activeCell="C6" sqref="C6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
